--- a/FMCG.xlsx
+++ b/FMCG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="280">
   <si>
     <t>S.No.</t>
   </si>
@@ -70,7 +70,7 @@
     <t>G Factor</t>
   </si>
   <si>
-    <t>BSE Codes</t>
+    <t>bsecodes</t>
   </si>
   <si>
     <t>mcPassPrec</t>
@@ -79,6 +79,9 @@
     <t>mcStrength</t>
   </si>
   <si>
+    <t>mcWeakness</t>
+  </si>
+  <si>
     <t>mcPiotski</t>
   </si>
   <si>
@@ -124,12 +127,12 @@
     <t>Galaxy Surfact.</t>
   </si>
   <si>
+    <t>Jyothy Labs</t>
+  </si>
+  <si>
     <t>KRBL</t>
   </si>
   <si>
-    <t>Jyothy Labs</t>
-  </si>
-  <si>
     <t>Hindustan Foods</t>
   </si>
   <si>
@@ -139,12 +142,12 @@
     <t>Tasty Bite Eat.</t>
   </si>
   <si>
+    <t>Mrs Bectors</t>
+  </si>
+  <si>
     <t>L T Foods</t>
   </si>
   <si>
-    <t>Mrs Bectors</t>
-  </si>
-  <si>
     <t>ADF Foods</t>
   </si>
   <si>
@@ -154,15 +157,12 @@
     <t>Heritage Foods</t>
   </si>
   <si>
+    <t>Prataap Snacks</t>
+  </si>
+  <si>
     <t>Parag Milk Foods</t>
   </si>
   <si>
-    <t>Prataap Snacks</t>
-  </si>
-  <si>
-    <t>Prabhat Dairy</t>
-  </si>
-  <si>
     <t>GRM Overseas</t>
   </si>
   <si>
@@ -187,36 +187,36 @@
     <t>Euro India Fresh</t>
   </si>
   <si>
+    <t>SKM Egg Prod.</t>
+  </si>
+  <si>
+    <t>Anjani Foods</t>
+  </si>
+  <si>
+    <t>Dangee Dums</t>
+  </si>
+  <si>
     <t>Milkfood</t>
   </si>
   <si>
-    <t>SKM Egg Prod.</t>
+    <t>Bambino Agro Ind</t>
   </si>
   <si>
     <t>Umang Dairies</t>
   </si>
   <si>
-    <t>Bambino Agro Ind</t>
-  </si>
-  <si>
-    <t>Dangee Dums</t>
-  </si>
-  <si>
     <t>Sheetal Cool</t>
   </si>
   <si>
     <t>JHS Sven.Lab.</t>
   </si>
   <si>
-    <t>Anjani Foods</t>
+    <t>Flex Foods</t>
   </si>
   <si>
     <t>Kothari Ferment.</t>
   </si>
   <si>
-    <t>Flex Foods</t>
-  </si>
-  <si>
     <t>Freshtrop Fruits</t>
   </si>
   <si>
@@ -226,43 +226,52 @@
     <t>Chordia Food</t>
   </si>
   <si>
+    <t>Lykis</t>
+  </si>
+  <si>
+    <t>Oceanic Foods</t>
+  </si>
+  <si>
     <t>Himalaya Food</t>
   </si>
   <si>
-    <t>Oceanic Foods</t>
-  </si>
-  <si>
-    <t>Lykis</t>
+    <t>Naturite Agro</t>
+  </si>
+  <si>
+    <t>Virat Crane Inds</t>
+  </si>
+  <si>
+    <t>Sanwaria Consum.</t>
   </si>
   <si>
     <t>Tasty Dairy</t>
   </si>
   <si>
-    <t>Virat Crane Inds</t>
-  </si>
-  <si>
-    <t>Sanwaria Consum.</t>
-  </si>
-  <si>
     <t>Ador Multi Prod.</t>
   </si>
   <si>
+    <t>Ovobel Foods</t>
+  </si>
+  <si>
     <t>Saptarishi Agro</t>
   </si>
   <si>
-    <t>Ovobel Foods</t>
+    <t>GKB Ophthalmics</t>
+  </si>
+  <si>
+    <t>Lotus Chocolate</t>
+  </si>
+  <si>
+    <t>Kovil. Lak. Rol.</t>
   </si>
   <si>
     <t>Pee Cee Cosma</t>
   </si>
   <si>
-    <t>GKB Ophthalmics</t>
-  </si>
-  <si>
     <t>Nakoda Group</t>
   </si>
   <si>
-    <t>Kovil. Lak. Rol.</t>
+    <t>Standard Surfact</t>
   </si>
   <si>
     <t>Megastar Foods</t>
@@ -271,12 +280,6 @@
     <t>Kohinoor Foods</t>
   </si>
   <si>
-    <t>Lotus Chocolate</t>
-  </si>
-  <si>
-    <t>Standard Surfact</t>
-  </si>
-  <si>
     <t>Modern Dairies</t>
   </si>
   <si>
@@ -295,33 +298,33 @@
     <t>Hipolin</t>
   </si>
   <si>
+    <t>ANS Industries</t>
+  </si>
+  <si>
     <t>Paramount Cosmet</t>
   </si>
   <si>
-    <t>ANS Industries</t>
-  </si>
-  <si>
     <t>KMG Milk Food</t>
   </si>
   <si>
+    <t>NHC Foods</t>
+  </si>
+  <si>
+    <t>Sampre Nutrition</t>
+  </si>
+  <si>
     <t>Jhandewala Foods</t>
   </si>
   <si>
-    <t>NHC Foods</t>
-  </si>
-  <si>
     <t>Tarai Foods</t>
   </si>
   <si>
-    <t>Sampre Nutrition</t>
+    <t>Mahaan Foods</t>
   </si>
   <si>
     <t>Spectrum Foods</t>
   </si>
   <si>
-    <t>Mahaan Foods</t>
-  </si>
-  <si>
     <t>Novateor Resear.</t>
   </si>
   <si>
@@ -343,190 +346,514 @@
     <t>Madhur Inds</t>
   </si>
   <si>
+    <t>Shah Foods</t>
+  </si>
+  <si>
     <t>Goldcoin Health</t>
   </si>
   <si>
-    <t>Shah Foods</t>
-  </si>
-  <si>
     <t>R T Exports</t>
   </si>
   <si>
     <t>Natura Hue Chem</t>
   </si>
   <si>
+    <t>500696</t>
+  </si>
+  <si>
+    <t>500790</t>
+  </si>
+  <si>
+    <t>500096</t>
+  </si>
+  <si>
+    <t>532424</t>
+  </si>
+  <si>
+    <t>500825</t>
+  </si>
+  <si>
+    <t>531642</t>
+  </si>
+  <si>
+    <t>500830</t>
+  </si>
+  <si>
+    <t>500459</t>
+  </si>
+  <si>
+    <t>540180</t>
+  </si>
+  <si>
+    <t>531162</t>
+  </si>
+  <si>
+    <t>531531</t>
+  </si>
+  <si>
+    <t>507815</t>
+  </si>
+  <si>
+    <t>531335</t>
+  </si>
+  <si>
+    <t>540935</t>
+  </si>
+  <si>
+    <t>532926</t>
+  </si>
+  <si>
+    <t>530813</t>
+  </si>
+  <si>
+    <t>519126</t>
+  </si>
+  <si>
+    <t>533229</t>
+  </si>
+  <si>
+    <t>519091</t>
+  </si>
+  <si>
+    <t>543253</t>
+  </si>
+  <si>
+    <t>532783</t>
+  </si>
+  <si>
+    <t>519183</t>
+  </si>
+  <si>
+    <t>519588</t>
+  </si>
+  <si>
+    <t>519552</t>
+  </si>
+  <si>
+    <t>540724</t>
+  </si>
+  <si>
+    <t>539889</t>
+  </si>
+  <si>
+    <t>531449</t>
+  </si>
+  <si>
+    <t>519156</t>
+  </si>
+  <si>
+    <t>530307</t>
+  </si>
+  <si>
+    <t>539276</t>
+  </si>
+  <si>
+    <t>507552</t>
+  </si>
+  <si>
+    <t>539594</t>
+  </si>
+  <si>
+    <t>507525</t>
+  </si>
+  <si>
     <t>EIFFL</t>
   </si>
   <si>
+    <t>532143</t>
+  </si>
+  <si>
+    <t>511153</t>
+  </si>
+  <si>
     <t>DANGEE</t>
   </si>
   <si>
+    <t>507621</t>
+  </si>
+  <si>
+    <t>519295</t>
+  </si>
+  <si>
+    <t>500231</t>
+  </si>
+  <si>
+    <t>540757</t>
+  </si>
+  <si>
+    <t>532771</t>
+  </si>
+  <si>
+    <t>523672</t>
+  </si>
+  <si>
+    <t>507474</t>
+  </si>
+  <si>
+    <t>530077</t>
+  </si>
+  <si>
     <t>SARVESHWAR</t>
   </si>
   <si>
-    <t>Narmada Agrobase Ltd.</t>
+    <t>519475</t>
+  </si>
+  <si>
+    <t>530689</t>
+  </si>
+  <si>
+    <t>540405</t>
+  </si>
+  <si>
+    <t>526899</t>
+  </si>
+  <si>
+    <t>538926</t>
+  </si>
+  <si>
+    <t>519457</t>
+  </si>
+  <si>
+    <t>519260</t>
+  </si>
+  <si>
+    <t>540955</t>
+  </si>
+  <si>
+    <t>523120</t>
+  </si>
+  <si>
+    <t>530741</t>
+  </si>
+  <si>
+    <t>519238</t>
+  </si>
+  <si>
+    <t>533212</t>
+  </si>
+  <si>
+    <t>523475</t>
+  </si>
+  <si>
+    <t>507598</t>
+  </si>
+  <si>
+    <t>524136</t>
+  </si>
+  <si>
+    <t>541418</t>
+  </si>
+  <si>
+    <t>526231</t>
+  </si>
+  <si>
+    <t>541352</t>
+  </si>
+  <si>
+    <t>512559</t>
+  </si>
+  <si>
+    <t>519287</t>
+  </si>
+  <si>
+    <t>530461</t>
+  </si>
+  <si>
+    <t>507300</t>
+  </si>
+  <si>
+    <t>NARMADA</t>
+  </si>
+  <si>
+    <t>530953</t>
+  </si>
+  <si>
+    <t>530853</t>
+  </si>
+  <si>
+    <t>531406</t>
+  </si>
+  <si>
+    <t>507970</t>
+  </si>
+  <si>
+    <t>519415</t>
+  </si>
+  <si>
+    <t>517554</t>
+  </si>
+  <si>
+    <t>530617</t>
+  </si>
+  <si>
+    <t>540850</t>
+  </si>
+  <si>
+    <t>519285</t>
+  </si>
+  <si>
+    <t>519612</t>
+  </si>
+  <si>
+    <t>531982</t>
+  </si>
+  <si>
+    <t>542771</t>
+  </si>
+  <si>
+    <t>530735</t>
+  </si>
+  <si>
+    <t>500458</t>
+  </si>
+  <si>
+    <t>519367</t>
+  </si>
+  <si>
+    <t>540681</t>
+  </si>
+  <si>
+    <t>519463</t>
+  </si>
+  <si>
+    <t>519279</t>
+  </si>
+  <si>
+    <t>519031</t>
+  </si>
+  <si>
+    <t>538542</t>
+  </si>
+  <si>
+    <t>512565</t>
+  </si>
+  <si>
+    <t>531834</t>
+  </si>
+  <si>
+    <t>50% Pass</t>
+  </si>
+  <si>
+    <t>75% Pass</t>
+  </si>
+  <si>
+    <t>69% Pass</t>
   </si>
   <si>
     <t>81% Pass</t>
   </si>
   <si>
-    <t>69% Pass</t>
+    <t>88% Pass</t>
+  </si>
+  <si>
+    <t>41% Pass</t>
+  </si>
+  <si>
+    <t>63% Pass</t>
   </si>
   <si>
     <t>56% Pass</t>
   </si>
   <si>
-    <t>63% Pass</t>
+    <t>59% Pass</t>
   </si>
   <si>
     <t>53% Pass</t>
   </si>
   <si>
-    <t>100% Pass</t>
+    <t>44% Pass</t>
+  </si>
+  <si>
+    <t>47% Pass</t>
+  </si>
+  <si>
+    <t>35% Pass</t>
   </si>
   <si>
     <t>83% Pass</t>
   </si>
   <si>
-    <t>94% Pass</t>
+    <t>58% Pass</t>
   </si>
   <si>
     <t>38% Pass</t>
   </si>
   <si>
-    <t>50% Pass</t>
-  </si>
-  <si>
-    <t>59% Pass</t>
-  </si>
-  <si>
-    <t>44% Pass</t>
+    <t>24% Pass</t>
+  </si>
+  <si>
+    <t>91% Pass</t>
+  </si>
+  <si>
+    <t>No Data Found</t>
+  </si>
+  <si>
+    <t>82% Pass</t>
+  </si>
+  <si>
+    <t>80% Pass</t>
+  </si>
+  <si>
+    <t>70% Pass</t>
+  </si>
+  <si>
+    <t>73% Pass</t>
+  </si>
+  <si>
+    <t>87% Pass</t>
+  </si>
+  <si>
+    <t>93% Pass</t>
+  </si>
+  <si>
+    <t>18% Pass</t>
   </si>
   <si>
     <t>40% Pass</t>
   </si>
   <si>
+    <t>43% Pass</t>
+  </si>
+  <si>
+    <t>20% Pass</t>
+  </si>
+  <si>
+    <t>62% Pass</t>
+  </si>
+  <si>
+    <t>31% Pass</t>
+  </si>
+  <si>
     <t>60% Pass</t>
   </si>
   <si>
-    <t>67% Pass</t>
-  </si>
-  <si>
-    <t>73% Pass</t>
-  </si>
-  <si>
     <t>64% Pass</t>
   </si>
   <si>
-    <t>47% Pass</t>
-  </si>
-  <si>
-    <t>No Data Found</t>
-  </si>
-  <si>
-    <t>54% Pass</t>
-  </si>
-  <si>
-    <t>31% Pass</t>
-  </si>
-  <si>
-    <t>82% Pass</t>
-  </si>
-  <si>
     <t>33% Pass</t>
   </si>
   <si>
-    <t>45% Pass</t>
-  </si>
-  <si>
-    <t>55% Pass</t>
-  </si>
-  <si>
-    <t>27% Pass</t>
-  </si>
-  <si>
-    <t>43% Pass</t>
-  </si>
-  <si>
-    <t>Strengths (15)</t>
+    <t>Strengths (2)</t>
+  </si>
+  <si>
+    <t>Strengths (13)</t>
+  </si>
+  <si>
+    <t>Strengths (6)</t>
+  </si>
+  <si>
+    <t>Strengths (12)</t>
   </si>
   <si>
     <t>Strengths (8)</t>
   </si>
   <si>
-    <t>Strengths (6)</t>
+    <t>Strengths (5)</t>
+  </si>
+  <si>
+    <t>Strengths (19)</t>
   </si>
   <si>
     <t>Strengths (7)</t>
   </si>
   <si>
-    <t>Strengths (12)</t>
-  </si>
-  <si>
-    <t>Strengths (5)</t>
+    <t>Strengths (10)</t>
+  </si>
+  <si>
+    <t>Strengths (16)</t>
   </si>
   <si>
     <t>Strengths (11)</t>
   </si>
   <si>
-    <t>Strengths (10)</t>
-  </si>
-  <si>
-    <t>Strengths (13)</t>
-  </si>
-  <si>
     <t>Strengths (9)</t>
   </si>
   <si>
     <t>Strengths (4)</t>
   </si>
   <si>
-    <t>Strengths (2)</t>
-  </si>
-  <si>
     <t>Strengths (3)</t>
   </si>
   <si>
     <t>Strengths (1)</t>
   </si>
   <si>
-    <t>Strengths (14)</t>
-  </si>
-  <si>
     <t>Strengths (0)</t>
   </si>
   <si>
+    <t>Weaknesses (5)</t>
+  </si>
+  <si>
+    <t>Weaknesses (3)</t>
+  </si>
+  <si>
+    <t>Weaknesses (4)</t>
+  </si>
+  <si>
+    <t>Weaknesses (6)</t>
+  </si>
+  <si>
+    <t>Weaknesses (8)</t>
+  </si>
+  <si>
+    <t>Weaknesses (2)</t>
+  </si>
+  <si>
+    <t>Weaknesses (0)</t>
+  </si>
+  <si>
+    <t>Weaknesses (9)</t>
+  </si>
+  <si>
+    <t>Weaknesses (11)</t>
+  </si>
+  <si>
+    <t>Weaknesses (12)</t>
+  </si>
+  <si>
+    <t>Weaknesses (10)</t>
+  </si>
+  <si>
+    <t>Weaknesses (13)</t>
+  </si>
+  <si>
+    <t>Weaknesses (1)</t>
+  </si>
+  <si>
+    <t>Weaknesses (7)</t>
+  </si>
+  <si>
+    <t>Weaknesses (14)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -884,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,19 +1284,22 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>2362.25</v>
+        <v>2321.7</v>
       </c>
       <c r="D2">
-        <v>555031.62</v>
+        <v>545504.04</v>
       </c>
       <c r="E2">
         <v>29.25</v>
@@ -978,7 +1308,7 @@
         <v>39.21</v>
       </c>
       <c r="G2">
-        <v>67.89</v>
+        <v>66.73</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -987,57 +1317,60 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>98.2</v>
+        <v>96.52</v>
       </c>
       <c r="K2">
-        <v>4.72</v>
+        <v>4.64</v>
       </c>
       <c r="L2">
-        <v>32.23</v>
+        <v>31.71</v>
       </c>
       <c r="M2">
-        <v>57.38</v>
+        <v>57.66</v>
       </c>
       <c r="N2">
-        <v>11.64</v>
+        <v>11.44</v>
       </c>
       <c r="O2">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="P2">
-        <v>2.36</v>
+        <v>-3.57</v>
       </c>
       <c r="Q2">
-        <v>8.98</v>
+        <v>8.9</v>
       </c>
       <c r="R2">
         <v>6</v>
       </c>
-      <c r="S2">
-        <v>500696</v>
+      <c r="S2" t="s">
+        <v>114</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="U2" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="V2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>17497.1</v>
+        <v>17509.4</v>
       </c>
       <c r="D3">
-        <v>168699.54</v>
+        <v>168818.13</v>
       </c>
       <c r="E3">
         <v>105.76</v>
@@ -1046,7 +1379,7 @@
         <v>139.29</v>
       </c>
       <c r="G3">
-        <v>78.13</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="H3">
         <v>0.07000000000000001</v>
@@ -1055,57 +1388,60 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>84.15000000000001</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="K3">
         <v>4.19</v>
       </c>
       <c r="L3">
-        <v>42.61</v>
+        <v>42.64</v>
       </c>
       <c r="M3">
-        <v>53.86</v>
+        <v>53.83</v>
       </c>
       <c r="N3">
-        <v>83.54000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="O3">
         <v>1.98</v>
       </c>
       <c r="P3">
-        <v>5.24</v>
+        <v>6.1</v>
       </c>
       <c r="Q3">
-        <v>8.699999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
-      <c r="S3">
-        <v>500790</v>
+      <c r="S3" t="s">
+        <v>115</v>
       </c>
       <c r="T3" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="U3" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="V3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>536.75</v>
+        <v>530.4</v>
       </c>
       <c r="D4">
-        <v>94866.56</v>
+        <v>93744.24000000001</v>
       </c>
       <c r="E4">
         <v>23.73</v>
@@ -1114,7 +1450,7 @@
         <v>27.32</v>
       </c>
       <c r="G4">
-        <v>56.02</v>
+        <v>55.36</v>
       </c>
       <c r="H4">
         <v>0.06</v>
@@ -1123,57 +1459,60 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>66.25</v>
+        <v>65.47</v>
       </c>
       <c r="K4">
-        <v>8.48</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="L4">
-        <v>19.36</v>
+        <v>19.17</v>
       </c>
       <c r="M4">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N4">
-        <v>12.38</v>
+        <v>12.23</v>
       </c>
       <c r="O4">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="P4">
-        <v>-4.14</v>
+        <v>-2.12</v>
       </c>
       <c r="Q4">
-        <v>7.27</v>
+        <v>5.43</v>
       </c>
       <c r="R4">
         <v>4</v>
       </c>
-      <c r="S4">
-        <v>500096</v>
+      <c r="S4" t="s">
+        <v>116</v>
       </c>
       <c r="T4" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="U4" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="V4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>818.45</v>
+        <v>844.7</v>
       </c>
       <c r="D5">
-        <v>83685.39</v>
+        <v>86369.42</v>
       </c>
       <c r="E5">
         <v>20.26</v>
@@ -1182,7 +1521,7 @@
         <v>20.69</v>
       </c>
       <c r="G5">
-        <v>47.64</v>
+        <v>49.17</v>
       </c>
       <c r="H5">
         <v>0.09</v>
@@ -1191,57 +1530,60 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>52.05</v>
+        <v>53.72</v>
       </c>
       <c r="K5">
-        <v>4.51</v>
+        <v>4.65</v>
       </c>
       <c r="L5">
-        <v>12.31</v>
+        <v>12.63</v>
       </c>
       <c r="M5">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N5">
-        <v>8.869999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="O5">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="P5">
-        <v>17.14</v>
+        <v>20.31</v>
       </c>
       <c r="Q5">
-        <v>17.01</v>
+        <v>23.06</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
-      <c r="S5">
-        <v>532424</v>
+      <c r="S5" t="s">
+        <v>117</v>
       </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="U5" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="V5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>3435.75</v>
+        <v>3423.45</v>
       </c>
       <c r="D6">
-        <v>82756.32000000001</v>
+        <v>82460.06</v>
       </c>
       <c r="E6">
         <v>46.89</v>
@@ -1250,7 +1592,7 @@
         <v>45.36</v>
       </c>
       <c r="G6">
-        <v>44.4</v>
+        <v>44.24</v>
       </c>
       <c r="H6">
         <v>0.59</v>
@@ -1259,57 +1601,60 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>68.81</v>
+        <v>68.56</v>
       </c>
       <c r="K6">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="L6">
-        <v>12.17</v>
+        <v>12.14</v>
       </c>
       <c r="M6">
-        <v>53.86</v>
+        <v>53.83</v>
       </c>
       <c r="N6">
-        <v>23.33</v>
+        <v>23.24</v>
       </c>
       <c r="O6">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="P6">
-        <v>-5.88</v>
+        <v>-1.31</v>
       </c>
       <c r="Q6">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
-      <c r="S6">
-        <v>500825</v>
+      <c r="S6" t="s">
+        <v>118</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="U6" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="V6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>258</v>
+      </c>
+      <c r="W6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>459.7</v>
+        <v>471.05</v>
       </c>
       <c r="D7">
-        <v>59364.12</v>
+        <v>60829.83</v>
       </c>
       <c r="E7">
         <v>36.95</v>
@@ -1318,7 +1663,7 @@
         <v>44.27</v>
       </c>
       <c r="G7">
-        <v>51.08</v>
+        <v>52.35</v>
       </c>
       <c r="H7">
         <v>0.11</v>
@@ -1327,57 +1672,60 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>45.88</v>
+        <v>47.01</v>
       </c>
       <c r="K7">
-        <v>4.73</v>
+        <v>4.85</v>
       </c>
       <c r="L7">
-        <v>18.58</v>
+        <v>18.96</v>
       </c>
       <c r="M7">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N7">
-        <v>18.32</v>
+        <v>18.77</v>
       </c>
       <c r="O7">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="P7">
-        <v>11.69</v>
+        <v>14.93</v>
       </c>
       <c r="Q7">
-        <v>9.220000000000001</v>
+        <v>18.49</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7">
-        <v>531642</v>
+      <c r="S7" t="s">
+        <v>119</v>
       </c>
       <c r="T7" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="U7" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="V7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>259</v>
+      </c>
+      <c r="W7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>1633.05</v>
+        <v>1711.15</v>
       </c>
       <c r="D8">
-        <v>44416.61</v>
+        <v>46540.82</v>
       </c>
       <c r="E8">
         <v>75.03</v>
@@ -1386,7 +1734,7 @@
         <v>95.22</v>
       </c>
       <c r="G8">
-        <v>42.9</v>
+        <v>44.95</v>
       </c>
       <c r="H8">
         <v>0.08</v>
@@ -1395,57 +1743,60 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>54.73</v>
+        <v>57.35</v>
       </c>
       <c r="K8">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="L8">
-        <v>19.28</v>
+        <v>20.02</v>
       </c>
       <c r="M8">
-        <v>57.38</v>
+        <v>57.66</v>
       </c>
       <c r="N8">
-        <v>38.1</v>
+        <v>39.92</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="P8">
-        <v>7.86</v>
+        <v>15.17</v>
       </c>
       <c r="Q8">
-        <v>5.63</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8">
-        <v>500830</v>
+      <c r="S8" t="s">
+        <v>120</v>
       </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="U8" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="V8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>260</v>
+      </c>
+      <c r="W8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>13303.5</v>
+        <v>13082.9</v>
       </c>
       <c r="D9">
-        <v>43184.14</v>
+        <v>42468.06</v>
       </c>
       <c r="E9">
         <v>42.09</v>
@@ -1454,7 +1805,7 @@
         <v>58.3</v>
       </c>
       <c r="G9">
-        <v>64.26000000000001</v>
+        <v>63.19</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1463,57 +1814,60 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>107.09</v>
+        <v>105.31</v>
       </c>
       <c r="K9">
-        <v>15.26</v>
+        <v>15.01</v>
       </c>
       <c r="L9">
-        <v>36.12</v>
+        <v>35.59</v>
       </c>
       <c r="M9">
-        <v>57.38</v>
+        <v>57.66</v>
       </c>
       <c r="N9">
-        <v>32.65</v>
+        <v>32.11</v>
       </c>
       <c r="O9">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="P9">
-        <v>-2.34</v>
+        <v>-2.95</v>
       </c>
       <c r="Q9">
-        <v>1.93</v>
+        <v>1.27</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
-      <c r="S9">
-        <v>500459</v>
+      <c r="S9" t="s">
+        <v>121</v>
       </c>
       <c r="T9" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="U9" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="V9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>991.7</v>
+        <v>1007.55</v>
       </c>
       <c r="D10">
-        <v>28629.26</v>
+        <v>29086.83</v>
       </c>
       <c r="E10">
         <v>11.19</v>
@@ -1522,7 +1876,7 @@
         <v>10.73</v>
       </c>
       <c r="G10">
-        <v>70.98</v>
+        <v>72.11</v>
       </c>
       <c r="H10">
         <v>0.91</v>
@@ -1531,125 +1885,131 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>69.16</v>
+        <v>70.27</v>
       </c>
       <c r="K10">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="M10">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N10">
-        <v>8.119999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="O10">
-        <v>4.58</v>
+        <v>4.51</v>
       </c>
       <c r="P10">
-        <v>12.71</v>
+        <v>7.52</v>
       </c>
       <c r="Q10">
-        <v>-3.26</v>
+        <v>-3.39</v>
       </c>
       <c r="R10">
         <v>4</v>
       </c>
-      <c r="S10">
-        <v>540180</v>
+      <c r="S10" t="s">
+        <v>122</v>
       </c>
       <c r="T10" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="U10" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="V10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>503.9</v>
+        <v>503.35</v>
       </c>
       <c r="D11">
-        <v>22399.05</v>
+        <v>22374.6</v>
       </c>
       <c r="E11">
-        <v>15.53</v>
+        <v>25.36</v>
       </c>
       <c r="F11">
-        <v>18.25</v>
+        <v>29.94</v>
       </c>
       <c r="G11">
-        <v>57.38</v>
+        <v>49.21</v>
       </c>
       <c r="H11">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>52.99</v>
+        <v>39.65</v>
       </c>
       <c r="K11">
-        <v>-6.37</v>
+        <v>23</v>
       </c>
       <c r="L11">
-        <v>15.95</v>
+        <v>20.04</v>
       </c>
       <c r="M11">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N11">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="O11">
-        <v>3.63</v>
+        <v>3.93</v>
       </c>
       <c r="P11">
-        <v>-0.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q11">
-        <v>5.87</v>
+        <v>10.58</v>
       </c>
       <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>531162</v>
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>123</v>
       </c>
       <c r="T11" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="U11" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="V11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>261</v>
+      </c>
+      <c r="W11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>855.85</v>
+        <v>857.3</v>
       </c>
       <c r="D12">
-        <v>18449.71</v>
+        <v>18480.97</v>
       </c>
       <c r="E12">
         <v>25.58</v>
@@ -1658,7 +2018,7 @@
         <v>20.34</v>
       </c>
       <c r="G12">
-        <v>74.89</v>
+        <v>75.02</v>
       </c>
       <c r="H12">
         <v>1.28</v>
@@ -1667,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>98.40000000000001</v>
+        <v>98.56</v>
       </c>
       <c r="K12">
         <v>2.27</v>
@@ -1676,48 +2036,51 @@
         <v>6.7</v>
       </c>
       <c r="M12">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N12">
-        <v>18.06</v>
+        <v>18.09</v>
       </c>
       <c r="O12">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="P12">
-        <v>14.18</v>
+        <v>7.11</v>
       </c>
       <c r="Q12">
-        <v>20.09</v>
+        <v>19.58</v>
       </c>
       <c r="R12">
         <v>5</v>
       </c>
-      <c r="S12">
-        <v>531531</v>
+      <c r="S12" t="s">
+        <v>124</v>
       </c>
       <c r="T12" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="U12" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="V12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>5480.1</v>
+        <v>5607.75</v>
       </c>
       <c r="D13">
-        <v>17859.65</v>
+        <v>18275.66</v>
       </c>
       <c r="E13">
         <v>27.31</v>
@@ -1726,7 +2089,7 @@
         <v>37.91</v>
       </c>
       <c r="G13">
-        <v>54.48</v>
+        <v>55.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1735,57 +2098,60 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>132.52</v>
+        <v>135.6</v>
       </c>
       <c r="K13">
-        <v>9.76</v>
+        <v>9.99</v>
       </c>
       <c r="L13">
-        <v>22.1</v>
+        <v>22.54</v>
       </c>
       <c r="M13">
-        <v>57.38</v>
+        <v>57.66</v>
       </c>
       <c r="N13">
-        <v>19.23</v>
+        <v>19.68</v>
       </c>
       <c r="O13">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="P13">
-        <v>1.13</v>
+        <v>2.1</v>
       </c>
       <c r="Q13">
-        <v>-0.83</v>
+        <v>1.39</v>
       </c>
       <c r="R13">
         <v>4</v>
       </c>
-      <c r="S13">
-        <v>507815</v>
+      <c r="S13" t="s">
+        <v>125</v>
       </c>
       <c r="T13" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="U13" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="V13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>260</v>
+      </c>
+      <c r="W13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>2110.15</v>
+        <v>2102.05</v>
       </c>
       <c r="D14">
-        <v>13427.34</v>
+        <v>13375.79</v>
       </c>
       <c r="E14">
         <v>6.25</v>
@@ -1794,7 +2160,7 @@
         <v>6.5</v>
       </c>
       <c r="G14">
-        <v>53.53</v>
+        <v>53.32</v>
       </c>
       <c r="H14">
         <v>0.12</v>
@@ -1803,57 +2169,60 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>63.29</v>
+        <v>63.05</v>
       </c>
       <c r="K14">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="L14">
-        <v>7.77</v>
+        <v>7.74</v>
       </c>
       <c r="M14">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N14">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="O14">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="P14">
-        <v>-1.31</v>
+        <v>0.28</v>
       </c>
       <c r="Q14">
-        <v>11.71</v>
+        <v>9.99</v>
       </c>
       <c r="R14">
         <v>5</v>
       </c>
-      <c r="S14">
-        <v>531335</v>
+      <c r="S14" t="s">
+        <v>126</v>
       </c>
       <c r="T14" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="U14" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="V14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>3073</v>
+        <v>2971</v>
       </c>
       <c r="D15">
-        <v>10895.25</v>
+        <v>10533.61</v>
       </c>
       <c r="E15">
         <v>23.82</v>
@@ -1862,7 +2231,7 @@
         <v>23.82</v>
       </c>
       <c r="G15">
-        <v>38.06</v>
+        <v>36.8</v>
       </c>
       <c r="H15">
         <v>0.2</v>
@@ -1871,261 +2240,273 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>86.39</v>
+        <v>83.52</v>
       </c>
       <c r="K15">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="L15">
-        <v>12.28</v>
+        <v>11.98</v>
       </c>
       <c r="M15">
-        <v>24.26</v>
+        <v>24.86</v>
       </c>
       <c r="N15">
-        <v>9.130000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="O15">
-        <v>3.99</v>
+        <v>4.12</v>
       </c>
       <c r="P15">
-        <v>17.45</v>
+        <v>2.04</v>
       </c>
       <c r="Q15">
-        <v>40.52</v>
+        <v>34.63</v>
       </c>
       <c r="R15">
         <v>3</v>
       </c>
-      <c r="S15">
-        <v>540935</v>
+      <c r="S15" t="s">
+        <v>127</v>
       </c>
       <c r="T15" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="U15" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="V15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>259</v>
+      </c>
+      <c r="W15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>243.3</v>
+        <v>158.3</v>
       </c>
       <c r="D16">
-        <v>5727.04</v>
+        <v>5812.91</v>
       </c>
       <c r="E16">
-        <v>19.07</v>
+        <v>15.01</v>
       </c>
       <c r="F16">
-        <v>20.88</v>
+        <v>17.83</v>
       </c>
       <c r="G16">
-        <v>10.04</v>
+        <v>29.15</v>
       </c>
       <c r="H16">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>16.07</v>
+        <v>22.66</v>
       </c>
       <c r="K16">
-        <v>0.88</v>
+        <v>1.41</v>
       </c>
       <c r="L16">
-        <v>9.44</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="M16">
-        <v>39.48</v>
+        <v>40.05</v>
       </c>
       <c r="N16">
-        <v>1.68</v>
+        <v>4.07</v>
       </c>
       <c r="O16">
-        <v>14.53</v>
+        <v>5.41</v>
       </c>
       <c r="P16">
-        <v>35.85</v>
+        <v>6.67</v>
       </c>
       <c r="Q16">
-        <v>19.5</v>
+        <v>6.35</v>
       </c>
       <c r="R16">
         <v>3</v>
       </c>
-      <c r="S16">
-        <v>530813</v>
+      <c r="S16" t="s">
+        <v>128</v>
       </c>
       <c r="T16" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="U16" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="V16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17">
-        <v>147.05</v>
+        <v>214.7</v>
       </c>
       <c r="D17">
-        <v>5399.8</v>
+        <v>5053.82</v>
       </c>
       <c r="E17">
-        <v>15.01</v>
+        <v>19.07</v>
       </c>
       <c r="F17">
-        <v>17.83</v>
+        <v>20.88</v>
       </c>
       <c r="G17">
-        <v>27.07</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H17">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>21.05</v>
+        <v>14.18</v>
       </c>
       <c r="K17">
-        <v>1.31</v>
+        <v>0.78</v>
       </c>
       <c r="L17">
-        <v>8.050000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="M17">
-        <v>39.08</v>
+        <v>39.05</v>
       </c>
       <c r="N17">
-        <v>3.78</v>
+        <v>1.48</v>
       </c>
       <c r="O17">
-        <v>5.82</v>
+        <v>16.47</v>
       </c>
       <c r="P17">
-        <v>-1.64</v>
+        <v>16.53</v>
       </c>
       <c r="Q17">
-        <v>-0.14</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>532926</v>
+        <v>4</v>
+      </c>
+      <c r="S17" t="s">
+        <v>129</v>
       </c>
       <c r="T17" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="U17" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="V17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>258</v>
+      </c>
+      <c r="W17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>2197.9</v>
+        <v>2228</v>
       </c>
       <c r="D18">
-        <v>4659.13</v>
+        <v>4722.93</v>
       </c>
       <c r="E18">
-        <v>18.23</v>
+        <v>17.67</v>
       </c>
       <c r="F18">
-        <v>17.91</v>
+        <v>18.04</v>
       </c>
       <c r="G18">
-        <v>144.25</v>
+        <v>129.5</v>
       </c>
       <c r="H18">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-84.56999999999999</v>
+        <v>-93.04000000000001</v>
       </c>
       <c r="K18">
-        <v>2.6</v>
+        <v>1.43</v>
       </c>
       <c r="L18">
-        <v>10.5</v>
+        <v>9.19</v>
       </c>
       <c r="M18">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N18">
-        <v>23.24</v>
+        <v>21.05</v>
       </c>
       <c r="O18">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="P18">
-        <v>8.800000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="Q18">
-        <v>-8.140000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="R18">
-        <v>5</v>
-      </c>
-      <c r="S18">
-        <v>519126</v>
+        <v>6</v>
+      </c>
+      <c r="S18" t="s">
+        <v>130</v>
       </c>
       <c r="T18" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="V18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>278.65</v>
+        <v>286.8</v>
       </c>
       <c r="D19">
-        <v>4111.21</v>
+        <v>4231.45</v>
       </c>
       <c r="E19">
         <v>31.64</v>
@@ -2134,7 +2515,7 @@
         <v>37.87</v>
       </c>
       <c r="G19">
-        <v>18.43</v>
+        <v>18.96</v>
       </c>
       <c r="H19">
         <v>0.01</v>
@@ -2143,57 +2524,60 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>21.46</v>
+        <v>22.09</v>
       </c>
       <c r="K19">
-        <v>-27.51</v>
+        <v>-28.3</v>
       </c>
       <c r="L19">
-        <v>21.42</v>
+        <v>21.93</v>
       </c>
       <c r="M19">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N19">
-        <v>5.43</v>
+        <v>5.59</v>
       </c>
       <c r="O19">
-        <v>5.92</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>-3.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q19">
-        <v>13.8</v>
+        <v>18.12</v>
       </c>
       <c r="R19">
         <v>6</v>
       </c>
-      <c r="S19">
-        <v>533229</v>
+      <c r="S19" t="s">
+        <v>131</v>
       </c>
       <c r="T19" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="U19" t="s">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="V19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20">
-        <v>15427.45</v>
+        <v>15353.4</v>
       </c>
       <c r="D20">
-        <v>3958.68</v>
+        <v>3939.68</v>
       </c>
       <c r="E20">
         <v>21.28</v>
@@ -2202,7 +2586,7 @@
         <v>18.31</v>
       </c>
       <c r="G20">
-        <v>100.63</v>
+        <v>100.14</v>
       </c>
       <c r="H20">
         <v>0.8100000000000001</v>
@@ -2211,252 +2595,264 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <v>-1995.59</v>
+        <v>-1986.01</v>
       </c>
       <c r="K20">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="L20">
-        <v>10.39</v>
+        <v>10.35</v>
       </c>
       <c r="M20">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N20">
-        <v>19.16</v>
+        <v>19.07</v>
       </c>
       <c r="O20">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P20">
-        <v>-0.89</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="Q20">
-        <v>5.87</v>
+        <v>-0.71</v>
       </c>
       <c r="R20">
         <v>2</v>
       </c>
-      <c r="S20">
-        <v>519091</v>
+      <c r="S20" t="s">
+        <v>132</v>
       </c>
       <c r="T20" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="U20" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="V20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>263</v>
+      </c>
+      <c r="W20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>87.59999999999999</v>
+        <v>416.95</v>
       </c>
       <c r="D21">
-        <v>2801.84</v>
+        <v>2449.44</v>
       </c>
       <c r="E21">
-        <v>13.32</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F21">
-        <v>13.2</v>
+        <v>11.98</v>
       </c>
       <c r="G21">
-        <v>10.31</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="H21">
-        <v>0.87</v>
+        <v>0.42</v>
       </c>
       <c r="I21">
-        <v>7</v>
-      </c>
-      <c r="J21">
-        <v>39.51</v>
-      </c>
-      <c r="K21">
-        <v>0.49</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.36</v>
+        <v>9.35</v>
       </c>
       <c r="M21">
-        <v>39.48</v>
-      </c>
-      <c r="N21">
-        <v>1.71</v>
+        <v>39.05</v>
       </c>
       <c r="O21">
-        <v>20.07</v>
+        <v>3.81</v>
       </c>
       <c r="P21">
-        <v>23.03</v>
+        <v>16.26</v>
       </c>
       <c r="Q21">
-        <v>71.09</v>
+        <v>4.2</v>
       </c>
       <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>532783</v>
+        <v>3</v>
+      </c>
+      <c r="S21" t="s">
+        <v>133</v>
       </c>
       <c r="T21" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="U21" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="V21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>260</v>
+      </c>
+      <c r="W21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>398.6</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="D22">
-        <v>2341.64</v>
+        <v>2371.65</v>
       </c>
       <c r="E22">
-        <v>9.890000000000001</v>
+        <v>16.93</v>
       </c>
       <c r="F22">
-        <v>11.98</v>
+        <v>14.86</v>
       </c>
       <c r="G22">
-        <v>77.13</v>
+        <v>8.65</v>
       </c>
       <c r="H22">
-        <v>0.42</v>
+        <v>0.87</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.28</v>
       </c>
       <c r="L22">
-        <v>9.06</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
-        <v>39.48</v>
+        <v>39.05</v>
+      </c>
+      <c r="N22">
+        <v>1.35</v>
       </c>
       <c r="O22">
-        <v>3.99</v>
+        <v>23.28</v>
       </c>
       <c r="P22">
-        <v>8.68</v>
+        <v>0.61</v>
       </c>
       <c r="Q22">
-        <v>0.85</v>
+        <v>40.7</v>
       </c>
       <c r="R22">
-        <v>3</v>
-      </c>
-      <c r="S22">
-        <v>543253</v>
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>134</v>
       </c>
       <c r="T22" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="U22" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="V22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>1022.25</v>
+        <v>968.5</v>
       </c>
       <c r="D23">
-        <v>2046.82</v>
+        <v>1939.2</v>
       </c>
       <c r="E23">
-        <v>22.93</v>
+        <v>20.95</v>
       </c>
       <c r="F23">
-        <v>28.44</v>
+        <v>27.09</v>
       </c>
       <c r="G23">
-        <v>42.25</v>
+        <v>38.73</v>
       </c>
       <c r="H23">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>127.25</v>
+        <v>95.11</v>
       </c>
       <c r="K23">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="L23">
-        <v>24.19</v>
+        <v>29.5</v>
       </c>
       <c r="M23">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N23">
-        <v>9.01</v>
+        <v>7.09</v>
       </c>
       <c r="O23">
-        <v>2.98</v>
+        <v>3.49</v>
       </c>
       <c r="P23">
-        <v>16.23</v>
+        <v>0.67</v>
       </c>
       <c r="Q23">
-        <v>32.48</v>
+        <v>17.55</v>
       </c>
       <c r="R23">
         <v>4</v>
       </c>
-      <c r="S23">
-        <v>519183</v>
+      <c r="S23" t="s">
+        <v>135</v>
       </c>
       <c r="T23" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="U23" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="V23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>264</v>
+      </c>
+      <c r="W23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>332.4</v>
+        <v>354.75</v>
       </c>
       <c r="D24">
-        <v>1671</v>
+        <v>1783.36</v>
       </c>
       <c r="E24">
         <v>17.65</v>
@@ -2465,7 +2861,7 @@
         <v>16.06</v>
       </c>
       <c r="G24">
-        <v>62.89</v>
+        <v>67.12</v>
       </c>
       <c r="H24">
         <v>0.63</v>
@@ -2474,57 +2870,60 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <v>59.25</v>
+        <v>63.24</v>
       </c>
       <c r="K24">
-        <v>4.51</v>
+        <v>4.82</v>
       </c>
       <c r="L24">
-        <v>7.56</v>
+        <v>7.91</v>
       </c>
       <c r="M24">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N24">
-        <v>10.07</v>
+        <v>10.75</v>
       </c>
       <c r="O24">
-        <v>3.07</v>
+        <v>2.87</v>
       </c>
       <c r="P24">
-        <v>-4.04</v>
+        <v>3.94</v>
       </c>
       <c r="Q24">
-        <v>-13.13</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="R24">
         <v>4</v>
       </c>
-      <c r="S24">
-        <v>519588</v>
+      <c r="S24" t="s">
+        <v>136</v>
       </c>
       <c r="T24" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="U24" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="V24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>327</v>
+        <v>330.5</v>
       </c>
       <c r="D25">
-        <v>1517.21</v>
+        <v>1533.45</v>
       </c>
       <c r="E25">
         <v>28.36</v>
@@ -2533,7 +2932,7 @@
         <v>31.7</v>
       </c>
       <c r="G25">
-        <v>10.17</v>
+        <v>10.28</v>
       </c>
       <c r="H25">
         <v>0.06</v>
@@ -2542,982 +2941,1027 @@
         <v>7</v>
       </c>
       <c r="J25">
-        <v>32.57</v>
+        <v>32.92</v>
       </c>
       <c r="K25">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="L25">
-        <v>8.4</v>
+        <v>8.44</v>
       </c>
       <c r="M25">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N25">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="O25">
-        <v>17.08</v>
+        <v>16.9</v>
       </c>
       <c r="P25">
-        <v>-2.18</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>5.07</v>
       </c>
       <c r="R25">
         <v>5</v>
       </c>
-      <c r="S25">
-        <v>519552</v>
+      <c r="S25" t="s">
+        <v>137</v>
       </c>
       <c r="T25" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="U25" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="V25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>263</v>
+      </c>
+      <c r="W25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>140.55</v>
+        <v>583.8</v>
       </c>
       <c r="D26">
-        <v>1340.51</v>
+        <v>1369.19</v>
       </c>
       <c r="E26">
-        <v>10.92</v>
+        <v>2.33</v>
       </c>
       <c r="F26">
-        <v>14.01</v>
+        <v>2.55</v>
       </c>
       <c r="G26">
-        <v>33.12</v>
+        <v>96.69</v>
       </c>
       <c r="H26">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>-44.01</v>
+        <v>671.42</v>
       </c>
       <c r="K26">
-        <v>1.61</v>
+        <v>-6.48</v>
       </c>
       <c r="L26">
-        <v>3.07</v>
+        <v>7.08</v>
       </c>
       <c r="M26">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N26">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="O26">
-        <v>10.91</v>
+        <v>4.61</v>
       </c>
       <c r="P26">
-        <v>25.77</v>
+        <v>7.34</v>
       </c>
       <c r="Q26">
-        <v>33.41</v>
+        <v>-7.66</v>
       </c>
       <c r="R26">
-        <v>3</v>
-      </c>
-      <c r="S26">
-        <v>539889</v>
+        <v>2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>138</v>
       </c>
       <c r="T26" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="U26" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="V26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>261</v>
+      </c>
+      <c r="W26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27">
-        <v>550.9</v>
+        <v>137.9</v>
       </c>
       <c r="D27">
-        <v>1292.03</v>
+        <v>1315.23</v>
       </c>
       <c r="E27">
-        <v>8.09</v>
+        <v>10.92</v>
       </c>
       <c r="F27">
-        <v>6.61</v>
+        <v>14.01</v>
       </c>
       <c r="G27">
-        <v>48.23</v>
+        <v>32.5</v>
       </c>
       <c r="H27">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>169.01</v>
+        <v>-43.18</v>
       </c>
       <c r="K27">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="L27">
-        <v>6.69</v>
+        <v>3.06</v>
       </c>
       <c r="M27">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N27">
-        <v>2.12</v>
+        <v>1.41</v>
       </c>
       <c r="O27">
-        <v>4.87</v>
+        <v>11.12</v>
       </c>
       <c r="P27">
-        <v>-0.51</v>
+        <v>23.07</v>
       </c>
       <c r="Q27">
-        <v>-10.79</v>
+        <v>28.52</v>
       </c>
       <c r="R27">
         <v>3</v>
       </c>
-      <c r="S27">
-        <v>540724</v>
+      <c r="S27" t="s">
+        <v>139</v>
       </c>
       <c r="T27" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="U27" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="V27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>265</v>
+      </c>
+      <c r="W27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28">
-        <v>99.59999999999999</v>
+        <v>2699.4</v>
       </c>
       <c r="D28">
-        <v>972.85</v>
+        <v>1063.56</v>
       </c>
       <c r="E28">
-        <v>-17.58</v>
+        <v>40.39</v>
       </c>
       <c r="F28">
-        <v>-13.95</v>
+        <v>22.67</v>
+      </c>
+      <c r="G28">
+        <v>23.42</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>20.65</v>
+      </c>
+      <c r="K28">
+        <v>0.27</v>
+      </c>
+      <c r="L28">
+        <v>4.6</v>
+      </c>
+      <c r="M28">
+        <v>39.05</v>
+      </c>
+      <c r="N28">
+        <v>7.88</v>
+      </c>
+      <c r="O28">
+        <v>6.29</v>
+      </c>
+      <c r="P28">
+        <v>35.65</v>
+      </c>
+      <c r="Q28">
+        <v>147.47</v>
+      </c>
+      <c r="R28">
         <v>4</v>
       </c>
-      <c r="J28">
-        <v>3.21</v>
-      </c>
-      <c r="L28">
-        <v>0.73</v>
-      </c>
-      <c r="M28">
-        <v>39.48</v>
-      </c>
-      <c r="N28">
-        <v>1.99</v>
-      </c>
-      <c r="O28">
-        <v>-13.98</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>43.31</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>539351</v>
+      <c r="S28" t="s">
+        <v>140</v>
       </c>
       <c r="T28" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="U28" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="V28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>2404.25</v>
+        <v>1014.3</v>
       </c>
       <c r="D29">
-        <v>947.27</v>
+        <v>729.28</v>
       </c>
       <c r="E29">
-        <v>42.67</v>
+        <v>18.13</v>
       </c>
       <c r="F29">
-        <v>17.03</v>
-      </c>
-      <c r="G29">
-        <v>19.26</v>
+        <v>16.61</v>
       </c>
       <c r="H29">
-        <v>1.12</v>
+        <v>0.57</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>72.67</v>
-      </c>
-      <c r="K29">
-        <v>0.38</v>
+        <v>912.87</v>
       </c>
       <c r="L29">
-        <v>5.85</v>
+        <v>2.56</v>
       </c>
       <c r="M29">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N29">
-        <v>7.87</v>
+        <v>3.09</v>
       </c>
       <c r="O29">
-        <v>7.63</v>
+        <v>-0.25</v>
       </c>
       <c r="P29">
-        <v>21.43</v>
+        <v>11.2</v>
       </c>
       <c r="Q29">
-        <v>179.06</v>
+        <v>15.41</v>
       </c>
       <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>531449</v>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s">
+        <v>141</v>
       </c>
       <c r="T29" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="U29" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="V29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>266</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>982.55</v>
+        <v>130</v>
       </c>
       <c r="D30">
-        <v>706.45</v>
+        <v>672.54</v>
       </c>
       <c r="E30">
-        <v>18.13</v>
+        <v>20.99</v>
       </c>
       <c r="F30">
-        <v>16.61</v>
+        <v>22.79</v>
+      </c>
+      <c r="G30">
+        <v>8.279999999999999</v>
       </c>
       <c r="H30">
-        <v>0.57</v>
+        <v>0.15</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>884.3</v>
+        <v>-47.51</v>
+      </c>
+      <c r="K30">
+        <v>0.38</v>
       </c>
       <c r="L30">
-        <v>2.52</v>
+        <v>7.61</v>
       </c>
       <c r="M30">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="O30">
-        <v>-0.26</v>
+        <v>17.48</v>
       </c>
       <c r="P30">
-        <v>7.82</v>
+        <v>49</v>
       </c>
       <c r="Q30">
-        <v>15.72</v>
+        <v>68.39</v>
       </c>
       <c r="R30">
         <v>5</v>
       </c>
-      <c r="S30">
-        <v>519156</v>
+      <c r="S30" t="s">
+        <v>142</v>
       </c>
       <c r="T30" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="U30" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="V30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>259</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31">
-        <v>133.75</v>
+        <v>311.95</v>
       </c>
       <c r="D31">
-        <v>691.9400000000001</v>
+        <v>407.53</v>
       </c>
       <c r="E31">
-        <v>20.99</v>
+        <v>-55.85</v>
       </c>
       <c r="F31">
-        <v>22.79</v>
-      </c>
-      <c r="G31">
-        <v>8.52</v>
+        <v>-9.91</v>
       </c>
       <c r="H31">
-        <v>0.15</v>
+        <v>2.81</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>-48.88</v>
-      </c>
-      <c r="K31">
-        <v>0.39</v>
+        <v>22.28</v>
       </c>
       <c r="L31">
-        <v>7.7</v>
+        <v>1.14</v>
       </c>
       <c r="M31">
-        <v>39.48</v>
+        <v>40.05</v>
       </c>
       <c r="N31">
-        <v>2.22</v>
+        <v>7.48</v>
       </c>
       <c r="O31">
-        <v>16.99</v>
+        <v>5.58</v>
       </c>
       <c r="P31">
-        <v>56.98</v>
+        <v>12.15</v>
       </c>
       <c r="Q31">
-        <v>72.14</v>
+        <v>2.77</v>
       </c>
       <c r="R31">
-        <v>5</v>
-      </c>
-      <c r="S31">
-        <v>530307</v>
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>143</v>
       </c>
       <c r="T31" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="U31" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="V31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>267</v>
+      </c>
+      <c r="W31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32">
-        <v>280.8</v>
+        <v>56.6</v>
       </c>
       <c r="D32">
-        <v>366.84</v>
+        <v>284.91</v>
       </c>
       <c r="E32">
-        <v>-55.85</v>
+        <v>6.33</v>
       </c>
       <c r="F32">
-        <v>-9.91</v>
+        <v>8.449999999999999</v>
+      </c>
+      <c r="G32">
+        <v>132.52</v>
       </c>
       <c r="H32">
-        <v>2.81</v>
+        <v>1.01</v>
       </c>
       <c r="I32">
         <v>4</v>
       </c>
       <c r="J32">
-        <v>20.05</v>
+        <v>11.43</v>
+      </c>
+      <c r="K32">
+        <v>-54.09</v>
       </c>
       <c r="L32">
-        <v>1.07</v>
+        <v>1.79</v>
       </c>
       <c r="M32">
-        <v>39.08</v>
+        <v>39.05</v>
       </c>
       <c r="N32">
-        <v>6.73</v>
+        <v>1.57</v>
       </c>
       <c r="O32">
-        <v>6.2</v>
+        <v>7.15</v>
       </c>
       <c r="P32">
-        <v>0.05</v>
+        <v>9.16</v>
       </c>
       <c r="Q32">
-        <v>-8.73</v>
+        <v>14</v>
       </c>
       <c r="R32">
-        <v>4</v>
-      </c>
-      <c r="S32">
-        <v>539276</v>
+        <v>2</v>
+      </c>
+      <c r="S32" t="s">
+        <v>144</v>
       </c>
       <c r="T32" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="U32" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="V32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>4.4</v>
       </c>
       <c r="D33">
-        <v>256.73</v>
+        <v>220</v>
       </c>
       <c r="E33">
-        <v>6.33</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="G33">
-        <v>119.41</v>
+        <v>3.89</v>
       </c>
       <c r="H33">
-        <v>1.01</v>
+        <v>0.74</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>10.3</v>
-      </c>
-      <c r="K33">
-        <v>-48.74</v>
+        <v>-22.43</v>
       </c>
       <c r="L33">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N33">
-        <v>1.41</v>
+        <v>3.17</v>
       </c>
       <c r="O33">
-        <v>7.94</v>
+        <v>-3.26</v>
       </c>
       <c r="P33">
-        <v>0.29</v>
+        <v>-5.78</v>
       </c>
       <c r="Q33">
-        <v>4.4</v>
+        <v>-18.67</v>
       </c>
       <c r="R33">
         <v>2</v>
       </c>
-      <c r="S33">
-        <v>507552</v>
+      <c r="S33" t="s">
+        <v>145</v>
       </c>
       <c r="T33" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="U33" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="V33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34">
-        <v>4.48</v>
+        <v>719.25</v>
       </c>
       <c r="D34">
-        <v>224</v>
+        <v>218.52</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>-1.69</v>
       </c>
       <c r="F34">
-        <v>3.89</v>
+        <v>-3.7</v>
+      </c>
+      <c r="G34">
+        <v>103.08</v>
       </c>
       <c r="H34">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>-22.84</v>
+        <v>-13.94</v>
       </c>
       <c r="L34">
-        <v>5.02</v>
+        <v>16.24</v>
       </c>
       <c r="M34">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N34">
-        <v>3.23</v>
+        <v>1.17</v>
       </c>
       <c r="O34">
-        <v>-3.2</v>
+        <v>-3.99</v>
       </c>
       <c r="P34">
-        <v>-2.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q34">
-        <v>-11.81</v>
+        <v>4.4</v>
       </c>
       <c r="R34">
         <v>2</v>
       </c>
-      <c r="S34">
-        <v>539594</v>
+      <c r="S34" t="s">
+        <v>146</v>
       </c>
       <c r="T34" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="U34" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="V34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>269</v>
+      </c>
+      <c r="W34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35">
-        <v>710.05</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D35">
-        <v>215.73</v>
+        <v>207.33</v>
       </c>
       <c r="E35">
-        <v>-1.69</v>
+        <v>0.58</v>
       </c>
       <c r="F35">
-        <v>-3.7</v>
+        <v>3.84</v>
       </c>
       <c r="G35">
-        <v>101.76</v>
+        <v>592.37</v>
       </c>
       <c r="H35">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>-13.77</v>
+        <v>-71.41</v>
+      </c>
+      <c r="K35">
+        <v>-120.89</v>
       </c>
       <c r="L35">
-        <v>16.06</v>
+        <v>5.6</v>
       </c>
       <c r="M35">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N35">
-        <v>1.15</v>
+        <v>3.43</v>
       </c>
       <c r="O35">
-        <v>-4.05</v>
+        <v>2.43</v>
       </c>
       <c r="P35">
-        <v>3.91</v>
+        <v>11.47</v>
       </c>
       <c r="Q35">
-        <v>0.55</v>
+        <v>-22.91</v>
       </c>
       <c r="R35">
         <v>2</v>
       </c>
-      <c r="S35">
-        <v>507525</v>
+      <c r="S35" t="s">
+        <v>147</v>
       </c>
       <c r="T35" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="U35" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="V35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36">
-        <v>84</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D36">
-        <v>208.32</v>
+        <v>176.15</v>
       </c>
       <c r="E36">
-        <v>0.58</v>
+        <v>15.23</v>
       </c>
       <c r="F36">
-        <v>3.84</v>
+        <v>14.58</v>
       </c>
       <c r="G36">
-        <v>595.2</v>
+        <v>10.8</v>
       </c>
       <c r="H36">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>180.77</v>
+      </c>
+      <c r="K36">
+        <v>-1.29</v>
+      </c>
+      <c r="L36">
+        <v>3.48</v>
+      </c>
+      <c r="M36">
+        <v>39.05</v>
+      </c>
+      <c r="N36">
+        <v>1.54</v>
+      </c>
+      <c r="O36">
+        <v>11.61</v>
+      </c>
+      <c r="P36">
+        <v>28.53</v>
+      </c>
+      <c r="Q36">
+        <v>32.34</v>
+      </c>
+      <c r="R36">
         <v>5</v>
       </c>
-      <c r="J36">
-        <v>-71.75</v>
-      </c>
-      <c r="K36">
-        <v>-121.47</v>
-      </c>
-      <c r="L36">
-        <v>5.61</v>
-      </c>
-      <c r="M36">
-        <v>39.48</v>
-      </c>
-      <c r="N36">
-        <v>3.45</v>
-      </c>
-      <c r="O36">
-        <v>2.42</v>
-      </c>
-      <c r="P36">
-        <v>12</v>
-      </c>
-      <c r="Q36">
-        <v>-32.8</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
       <c r="S36" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="T36" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="U36" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="V36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37">
-        <v>355.3</v>
+        <v>314.85</v>
       </c>
       <c r="D37">
-        <v>173.74</v>
+        <v>175.99</v>
       </c>
       <c r="E37">
-        <v>7.42</v>
+        <v>5.39</v>
       </c>
       <c r="F37">
-        <v>9.48</v>
+        <v>6.77</v>
       </c>
       <c r="G37">
-        <v>93.91</v>
+        <v>169.22</v>
       </c>
       <c r="H37">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J37">
-        <v>11.49</v>
+        <v>629.7</v>
       </c>
       <c r="K37">
-        <v>1.77</v>
+        <v>4.58</v>
       </c>
       <c r="L37">
-        <v>2.58</v>
+        <v>10.85</v>
       </c>
       <c r="M37">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N37">
-        <v>1.47</v>
+        <v>17.53</v>
       </c>
       <c r="O37">
-        <v>10.28</v>
+        <v>1.22</v>
       </c>
       <c r="P37">
-        <v>15.1</v>
+        <v>49.93</v>
       </c>
       <c r="Q37">
-        <v>-4.02</v>
+        <v>55.64</v>
       </c>
       <c r="R37">
-        <v>3</v>
-      </c>
-      <c r="S37">
-        <v>507621</v>
+        <v>4</v>
+      </c>
+      <c r="S37" t="s">
+        <v>149</v>
       </c>
       <c r="T37" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="U37" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="V37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="D38">
-        <v>171.15</v>
+        <v>173.48</v>
       </c>
       <c r="E38">
-        <v>4.78</v>
+        <v>-4.1</v>
       </c>
       <c r="F38">
-        <v>8.83</v>
-      </c>
-      <c r="G38">
-        <v>12.06</v>
+        <v>-0.42</v>
       </c>
       <c r="H38">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>-39.35</v>
+      </c>
+      <c r="L38">
+        <v>7.32</v>
+      </c>
+      <c r="M38">
+        <v>39.05</v>
+      </c>
+      <c r="N38">
+        <v>5.22</v>
+      </c>
+      <c r="O38">
+        <v>1.95</v>
+      </c>
+      <c r="P38">
+        <v>2.92</v>
+      </c>
+      <c r="Q38">
+        <v>29.8</v>
+      </c>
+      <c r="R38">
         <v>3</v>
       </c>
-      <c r="J38">
-        <v>-55.5</v>
-      </c>
-      <c r="K38">
-        <v>-0.42</v>
-      </c>
-      <c r="L38">
-        <v>3.53</v>
-      </c>
-      <c r="M38">
-        <v>39.48</v>
-      </c>
-      <c r="N38">
-        <v>1.6</v>
-      </c>
-      <c r="O38">
-        <v>10.84</v>
-      </c>
-      <c r="P38">
-        <v>31.45</v>
-      </c>
-      <c r="Q38">
-        <v>30</v>
-      </c>
-      <c r="R38">
-        <v>6</v>
-      </c>
-      <c r="S38">
-        <v>532143</v>
+      <c r="S38" t="s">
+        <v>150</v>
       </c>
       <c r="T38" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="U38" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="V38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>75.65000000000001</v>
+        <v>353.1</v>
       </c>
       <c r="D39">
-        <v>166.45</v>
+        <v>172.67</v>
       </c>
       <c r="E39">
-        <v>6.78</v>
+        <v>7.42</v>
       </c>
       <c r="F39">
-        <v>9.710000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="G39">
-        <v>40.6</v>
+        <v>93.34</v>
       </c>
       <c r="H39">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>20.74</v>
+        <v>11.42</v>
       </c>
       <c r="K39">
-        <v>-3.61</v>
+        <v>1.76</v>
       </c>
       <c r="L39">
-        <v>3.13</v>
+        <v>2.58</v>
       </c>
       <c r="M39">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N39">
-        <v>2.69</v>
+        <v>1.46</v>
       </c>
       <c r="O39">
-        <v>8.18</v>
+        <v>10.34</v>
       </c>
       <c r="P39">
-        <v>40.48</v>
+        <v>11.63</v>
       </c>
       <c r="Q39">
-        <v>31.11</v>
+        <v>-3.67</v>
       </c>
       <c r="R39">
         <v>3</v>
       </c>
-      <c r="S39">
-        <v>500231</v>
+      <c r="S39" t="s">
+        <v>151</v>
       </c>
       <c r="T39" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="U39" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="V39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>266</v>
+      </c>
+      <c r="W39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>201.85</v>
+        <v>207.8</v>
       </c>
       <c r="D40">
-        <v>161.68</v>
+        <v>166.45</v>
       </c>
       <c r="E40">
         <v>8.92</v>
@@ -3526,7 +3970,7 @@
         <v>10.27</v>
       </c>
       <c r="G40">
-        <v>18.84</v>
+        <v>19.4</v>
       </c>
       <c r="H40">
         <v>1.13</v>
@@ -3535,119 +3979,131 @@
         <v>7</v>
       </c>
       <c r="J40">
-        <v>44</v>
+        <v>45.3</v>
       </c>
       <c r="K40">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="L40">
-        <v>3.82</v>
+        <v>3.84</v>
       </c>
       <c r="M40">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="O40">
-        <v>13.47</v>
+        <v>13.08</v>
       </c>
       <c r="P40">
-        <v>20.01</v>
+        <v>15.12</v>
       </c>
       <c r="Q40">
-        <v>5.02</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="R40">
         <v>2</v>
       </c>
-      <c r="S40">
-        <v>519295</v>
+      <c r="S40" t="s">
+        <v>152</v>
       </c>
       <c r="T40" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="U40" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="V40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41">
-        <v>152</v>
+        <v>71.95</v>
       </c>
       <c r="D41">
-        <v>156.03</v>
+        <v>158.31</v>
       </c>
       <c r="E41">
-        <v>-4.1</v>
+        <v>6.78</v>
       </c>
       <c r="F41">
-        <v>-0.42</v>
+        <v>9.710000000000001</v>
+      </c>
+      <c r="G41">
+        <v>38.61</v>
       </c>
       <c r="H41">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>-35.39</v>
+        <v>19.73</v>
+      </c>
+      <c r="K41">
+        <v>-3.43</v>
       </c>
       <c r="L41">
-        <v>6.75</v>
+        <v>3.09</v>
       </c>
       <c r="M41">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N41">
-        <v>4.69</v>
+        <v>2.56</v>
       </c>
       <c r="O41">
-        <v>2.17</v>
+        <v>8.6</v>
       </c>
       <c r="P41">
-        <v>8.77</v>
+        <v>32.38</v>
       </c>
       <c r="Q41">
-        <v>17.28</v>
+        <v>23.31</v>
       </c>
       <c r="R41">
         <v>3</v>
       </c>
       <c r="S41" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="T41" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="U41" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="V41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>260</v>
+      </c>
+      <c r="W41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42">
-        <v>139</v>
+        <v>140.05</v>
       </c>
       <c r="D42">
-        <v>145.95</v>
+        <v>147.05</v>
       </c>
       <c r="E42">
         <v>22.83</v>
@@ -3656,7 +4112,7 @@
         <v>19.22</v>
       </c>
       <c r="G42">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="H42">
         <v>1.06</v>
@@ -3665,57 +4121,60 @@
         <v>8</v>
       </c>
       <c r="J42">
-        <v>-8.279999999999999</v>
+        <v>-8.34</v>
       </c>
       <c r="K42">
         <v>0.11</v>
       </c>
       <c r="L42">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="M42">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="O42">
-        <v>22.37</v>
+        <v>22.2</v>
       </c>
       <c r="P42">
-        <v>-8.1</v>
+        <v>-6.01</v>
       </c>
       <c r="Q42">
-        <v>-15.24</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="R42">
         <v>4</v>
       </c>
-      <c r="S42">
-        <v>540757</v>
+      <c r="S42" t="s">
+        <v>154</v>
       </c>
       <c r="T42" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="U42" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="V42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>260</v>
+      </c>
+      <c r="W42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43">
-        <v>21.5</v>
+        <v>20.25</v>
       </c>
       <c r="D43">
-        <v>138.46</v>
+        <v>130.41</v>
       </c>
       <c r="E43">
         <v>0.5600000000000001</v>
@@ -3724,7 +4183,7 @@
         <v>3.61</v>
       </c>
       <c r="G43">
-        <v>37.65</v>
+        <v>35.46</v>
       </c>
       <c r="H43">
         <v>0.04</v>
@@ -3733,125 +4192,131 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <v>-18.19</v>
+        <v>-17.13</v>
       </c>
       <c r="K43">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="L43">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="M43">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N43">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="O43">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="P43">
-        <v>6.17</v>
+        <v>-0.25</v>
       </c>
       <c r="Q43">
-        <v>-19.48</v>
+        <v>-19</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="S43">
-        <v>532771</v>
+      <c r="S43" t="s">
+        <v>155</v>
       </c>
       <c r="T43" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="U43" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="V43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44">
-        <v>246.8</v>
+        <v>84.3</v>
       </c>
       <c r="D44">
-        <v>137.96</v>
+        <v>104.95</v>
       </c>
       <c r="E44">
-        <v>5.39</v>
+        <v>7.36</v>
       </c>
       <c r="F44">
-        <v>6.77</v>
+        <v>7.15</v>
       </c>
       <c r="G44">
-        <v>132.65</v>
+        <v>10.02</v>
       </c>
       <c r="H44">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J44">
-        <v>493.6</v>
+        <v>10.43</v>
       </c>
       <c r="K44">
-        <v>3.59</v>
+        <v>-1.59</v>
       </c>
       <c r="L44">
-        <v>8.859999999999999</v>
+        <v>3.36</v>
       </c>
       <c r="M44">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N44">
-        <v>13.74</v>
+        <v>1.05</v>
       </c>
       <c r="O44">
-        <v>1.55</v>
+        <v>15.58</v>
       </c>
       <c r="P44">
-        <v>23.93</v>
+        <v>8.77</v>
       </c>
       <c r="Q44">
-        <v>21.4</v>
+        <v>6.17</v>
       </c>
       <c r="R44">
         <v>4</v>
       </c>
-      <c r="S44">
-        <v>511153</v>
+      <c r="S44" t="s">
+        <v>156</v>
       </c>
       <c r="T44" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="U44" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="V44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>73.5</v>
+        <v>66.45</v>
       </c>
       <c r="D45">
-        <v>110.25</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="E45">
         <v>14.83</v>
@@ -3860,7 +4325,7 @@
         <v>16.47</v>
       </c>
       <c r="G45">
-        <v>26.38</v>
+        <v>23.85</v>
       </c>
       <c r="H45">
         <v>0.5600000000000001</v>
@@ -3869,1478 +4334,1550 @@
         <v>4</v>
       </c>
       <c r="J45">
-        <v>-31.53</v>
+        <v>-28.51</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="L45">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="M45">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N45">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="O45">
-        <v>12.27</v>
+        <v>13.57</v>
       </c>
       <c r="P45">
-        <v>50.61</v>
+        <v>31.58</v>
       </c>
       <c r="Q45">
-        <v>54.57</v>
+        <v>39.16</v>
       </c>
       <c r="R45">
         <v>5</v>
       </c>
-      <c r="S45">
-        <v>507474</v>
+      <c r="S45" t="s">
+        <v>157</v>
       </c>
       <c r="T45" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="U45" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="V45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46">
-        <v>82.34999999999999</v>
+        <v>87.05</v>
       </c>
       <c r="D46">
-        <v>102.53</v>
+        <v>95.08</v>
       </c>
       <c r="E46">
-        <v>7.36</v>
+        <v>6.12</v>
       </c>
       <c r="F46">
-        <v>7.15</v>
+        <v>6.45</v>
       </c>
       <c r="G46">
-        <v>9.789999999999999</v>
+        <v>20.36</v>
       </c>
       <c r="H46">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I46">
         <v>5</v>
       </c>
       <c r="J46">
-        <v>10.19</v>
+        <v>20.3</v>
       </c>
       <c r="K46">
-        <v>-1.56</v>
+        <v>-1.84</v>
       </c>
       <c r="L46">
-        <v>3.34</v>
+        <v>6.41</v>
       </c>
       <c r="M46">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N46">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="O46">
-        <v>15.95</v>
+        <v>11.25</v>
       </c>
       <c r="P46">
-        <v>3.2</v>
+        <v>12.98</v>
       </c>
       <c r="Q46">
-        <v>10.76</v>
+        <v>15.15</v>
       </c>
       <c r="R46">
-        <v>5</v>
-      </c>
-      <c r="S46">
-        <v>523672</v>
+        <v>2</v>
+      </c>
+      <c r="S46" t="s">
+        <v>158</v>
       </c>
       <c r="T46" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="U46" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="V46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47">
-        <v>86.7</v>
+        <v>30.4</v>
       </c>
       <c r="D47">
-        <v>94.7</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="E47">
-        <v>6.12</v>
+        <v>3.65</v>
       </c>
       <c r="F47">
-        <v>6.45</v>
+        <v>6.96</v>
       </c>
       <c r="G47">
-        <v>20.28</v>
+        <v>13.08</v>
       </c>
       <c r="H47">
-        <v>0.1</v>
+        <v>1.41</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J47">
-        <v>20.22</v>
+        <v>-5.15</v>
       </c>
       <c r="K47">
-        <v>-1.84</v>
+        <v>-2.01</v>
       </c>
       <c r="L47">
-        <v>6.39</v>
+        <v>2.97</v>
       </c>
       <c r="M47">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N47">
-        <v>1.22</v>
+        <v>0.47</v>
       </c>
       <c r="O47">
-        <v>11.29</v>
+        <v>32.89</v>
       </c>
       <c r="P47">
-        <v>13.85</v>
+        <v>-17.62</v>
       </c>
       <c r="Q47">
-        <v>9.960000000000001</v>
+        <v>102.67</v>
       </c>
       <c r="R47">
-        <v>2</v>
-      </c>
-      <c r="S47">
-        <v>530077</v>
+        <v>1</v>
+      </c>
+      <c r="S47" t="s">
+        <v>159</v>
       </c>
       <c r="T47" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="U47" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="V47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>267</v>
+      </c>
+      <c r="W47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="D48">
-        <v>71.23999999999999</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="E48">
-        <v>3.65</v>
+        <v>2.13</v>
       </c>
       <c r="F48">
-        <v>6.96</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>12.48</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="H48">
-        <v>1.41</v>
+        <v>0.09</v>
       </c>
       <c r="I48">
         <v>6</v>
       </c>
       <c r="J48">
-        <v>-4.91</v>
+        <v>20.77</v>
       </c>
       <c r="K48">
-        <v>-1.92</v>
+        <v>-7.6</v>
       </c>
       <c r="L48">
-        <v>2.96</v>
+        <v>6.51</v>
       </c>
       <c r="M48">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N48">
-        <v>0.45</v>
+        <v>1.94</v>
       </c>
       <c r="O48">
-        <v>34.48</v>
+        <v>5.21</v>
       </c>
       <c r="P48">
-        <v>-4.76</v>
+        <v>47.55</v>
       </c>
       <c r="Q48">
-        <v>122.22</v>
+        <v>83.92</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S48" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="T48" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="U48" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="V48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49">
-        <v>173.1</v>
+        <v>35.25</v>
       </c>
       <c r="D49">
-        <v>69.73</v>
+        <v>68.3</v>
       </c>
       <c r="E49">
-        <v>2.13</v>
+        <v>-10.96</v>
       </c>
       <c r="F49">
+        <v>1.58</v>
+      </c>
+      <c r="H49">
+        <v>3.7</v>
+      </c>
+      <c r="I49">
         <v>4</v>
       </c>
-      <c r="G49">
-        <v>69.73</v>
-      </c>
-      <c r="H49">
-        <v>0.09</v>
-      </c>
-      <c r="I49">
-        <v>6</v>
-      </c>
       <c r="J49">
-        <v>20.55</v>
-      </c>
-      <c r="K49">
-        <v>-7.52</v>
+        <v>4.59</v>
       </c>
       <c r="L49">
-        <v>6.48</v>
+        <v>0.99</v>
       </c>
       <c r="M49">
-        <v>39.48</v>
+        <v>40.05</v>
       </c>
       <c r="N49">
-        <v>1.92</v>
+        <v>7.25</v>
       </c>
       <c r="O49">
-        <v>5.26</v>
+        <v>-14.32</v>
       </c>
       <c r="P49">
-        <v>64.86</v>
+        <v>6.17</v>
       </c>
       <c r="Q49">
-        <v>79.09999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="R49">
         <v>3</v>
       </c>
-      <c r="S49">
-        <v>519475</v>
+      <c r="S49" t="s">
+        <v>161</v>
       </c>
       <c r="T49" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="U49" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="V49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>267</v>
+      </c>
+      <c r="W49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50">
-        <v>11.32</v>
+        <v>59.8</v>
       </c>
       <c r="D50">
-        <v>65.51000000000001</v>
+        <v>67.28</v>
       </c>
       <c r="E50">
-        <v>18.16</v>
+        <v>13.12</v>
       </c>
       <c r="F50">
-        <v>3.74</v>
+        <v>14.91</v>
       </c>
       <c r="G50">
-        <v>20.93</v>
+        <v>42.58</v>
       </c>
       <c r="H50">
-        <v>3.04</v>
+        <v>0.89</v>
       </c>
       <c r="I50">
         <v>7</v>
       </c>
       <c r="J50">
-        <v>6.01</v>
+        <v>30.77</v>
       </c>
       <c r="K50">
-        <v>1.19</v>
+        <v>2.29</v>
       </c>
       <c r="L50">
-        <v>0.88</v>
+        <v>3.72</v>
       </c>
       <c r="M50">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N50">
-        <v>1.1</v>
+        <v>2.79</v>
       </c>
       <c r="O50">
-        <v>11.89</v>
+        <v>6.24</v>
       </c>
       <c r="P50">
-        <v>22.78</v>
+        <v>37.16</v>
       </c>
       <c r="Q50">
-        <v>6.39</v>
+        <v>22.04</v>
       </c>
       <c r="R50">
-        <v>2</v>
-      </c>
-      <c r="S50">
-        <v>526899</v>
+        <v>1</v>
+      </c>
+      <c r="S50" t="s">
+        <v>162</v>
       </c>
       <c r="T50" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="U50" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="V50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51">
-        <v>57.45</v>
+        <v>11.09</v>
       </c>
       <c r="D51">
-        <v>64.63</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="E51">
-        <v>13.12</v>
+        <v>18.16</v>
       </c>
       <c r="F51">
-        <v>14.91</v>
+        <v>3.74</v>
       </c>
       <c r="G51">
-        <v>40.91</v>
+        <v>20.5</v>
       </c>
       <c r="H51">
-        <v>0.89</v>
+        <v>3.04</v>
       </c>
       <c r="I51">
         <v>7</v>
       </c>
       <c r="J51">
-        <v>29.56</v>
+        <v>5.89</v>
       </c>
       <c r="K51">
-        <v>2.2</v>
+        <v>1.17</v>
       </c>
       <c r="L51">
-        <v>3.69</v>
+        <v>0.87</v>
       </c>
       <c r="M51">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N51">
-        <v>2.68</v>
+        <v>1.08</v>
       </c>
       <c r="O51">
-        <v>6.5</v>
+        <v>12.14</v>
       </c>
       <c r="P51">
-        <v>45.08</v>
+        <v>5.62</v>
       </c>
       <c r="Q51">
-        <v>15.36</v>
+        <v>0.91</v>
       </c>
       <c r="R51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>540405</v>
+        <v>2</v>
+      </c>
+      <c r="S51" t="s">
+        <v>163</v>
       </c>
       <c r="T51" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="U51" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="V51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="D52">
-        <v>63.94</v>
+        <v>61.96</v>
       </c>
       <c r="E52">
-        <v>-10.96</v>
+        <v>0.4</v>
       </c>
       <c r="F52">
-        <v>1.58</v>
+        <v>0.31</v>
+      </c>
+      <c r="G52">
+        <v>52.96</v>
       </c>
       <c r="H52">
-        <v>3.7</v>
+        <v>0.01</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J52">
-        <v>4.3</v>
+        <v>-286.2</v>
+      </c>
+      <c r="K52">
+        <v>-1.4</v>
       </c>
       <c r="L52">
-        <v>0.96</v>
+        <v>20.07</v>
       </c>
       <c r="M52">
-        <v>39.08</v>
+        <v>39.05</v>
       </c>
       <c r="N52">
-        <v>6.79</v>
+        <v>4.43</v>
       </c>
       <c r="O52">
-        <v>-15.29</v>
+        <v>2.16</v>
       </c>
       <c r="P52">
-        <v>1.38</v>
+        <v>-2.5</v>
       </c>
       <c r="Q52">
-        <v>29.16</v>
+        <v>-5.11</v>
       </c>
       <c r="R52">
-        <v>3</v>
-      </c>
-      <c r="S52">
-        <v>530689</v>
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>164</v>
       </c>
       <c r="T52" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="U52" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="V52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>259</v>
+      </c>
+      <c r="W52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53">
-        <v>25.05</v>
+        <v>25.35</v>
       </c>
       <c r="D53">
-        <v>51.18</v>
+        <v>51.76</v>
       </c>
       <c r="E53">
-        <v>6.74</v>
+        <v>14.43</v>
       </c>
       <c r="F53">
-        <v>9.69</v>
+        <v>19.12</v>
       </c>
       <c r="G53">
-        <v>10.75</v>
+        <v>10.17</v>
       </c>
       <c r="H53">
-        <v>0.66</v>
+        <v>0.02</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53">
-        <v>-12.84</v>
+        <v>282.08</v>
+      </c>
+      <c r="K53">
+        <v>3.78</v>
       </c>
       <c r="L53">
-        <v>5.12</v>
+        <v>7</v>
       </c>
       <c r="M53">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N53">
-        <v>0.7</v>
+        <v>1.06</v>
       </c>
       <c r="O53">
-        <v>23.95</v>
+        <v>14.8</v>
       </c>
       <c r="P53">
-        <v>5.03</v>
+        <v>11.92</v>
       </c>
       <c r="Q53">
-        <v>2.66</v>
+        <v>17.63</v>
       </c>
       <c r="R53">
         <v>4</v>
       </c>
-      <c r="S53">
-        <v>540955</v>
+      <c r="S53" t="s">
+        <v>165</v>
       </c>
       <c r="T53" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="U53" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="V53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>266</v>
+      </c>
+      <c r="W53" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54">
-        <v>24.95</v>
+        <v>0.7</v>
       </c>
       <c r="D54">
-        <v>50.95</v>
+        <v>51.53</v>
       </c>
       <c r="E54">
-        <v>14.43</v>
+        <v>-2917.64</v>
       </c>
       <c r="F54">
-        <v>19.12</v>
-      </c>
-      <c r="G54">
-        <v>10.01</v>
-      </c>
-      <c r="H54">
-        <v>0.02</v>
+        <v>-116.99</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>277.63</v>
-      </c>
-      <c r="K54">
-        <v>3.72</v>
+        <v>0.73</v>
       </c>
       <c r="L54">
-        <v>6.94</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="M54">
-        <v>39.48</v>
-      </c>
-      <c r="N54">
-        <v>1.05</v>
+        <v>39.05</v>
       </c>
       <c r="O54">
-        <v>15.03</v>
+        <v>-993.17</v>
       </c>
       <c r="P54">
-        <v>16.05</v>
+        <v>16.67</v>
       </c>
       <c r="Q54">
-        <v>16.05</v>
+        <v>-17.65</v>
       </c>
       <c r="R54">
-        <v>4</v>
-      </c>
-      <c r="S54">
-        <v>519457</v>
+        <v>3</v>
+      </c>
+      <c r="S54" t="s">
+        <v>166</v>
       </c>
       <c r="T54" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="U54" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="V54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55">
-        <v>0.6</v>
+        <v>24.5</v>
       </c>
       <c r="D55">
-        <v>44.17</v>
+        <v>50.05</v>
       </c>
       <c r="E55">
-        <v>-2917.64</v>
+        <v>6.74</v>
       </c>
       <c r="F55">
-        <v>-116.99</v>
+        <v>9.69</v>
+      </c>
+      <c r="G55">
+        <v>10.51</v>
+      </c>
+      <c r="H55">
+        <v>0.66</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>0.62</v>
+        <v>-12.56</v>
       </c>
       <c r="L55">
-        <v>-8.539999999999999</v>
+        <v>5.11</v>
       </c>
       <c r="M55">
-        <v>39.48</v>
+        <v>39.05</v>
+      </c>
+      <c r="N55">
+        <v>0.6899999999999999</v>
       </c>
       <c r="O55">
-        <v>-1158.66</v>
+        <v>24.49</v>
       </c>
       <c r="P55">
-        <v>-7.69</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-7.69</v>
+        <v>-3.92</v>
       </c>
       <c r="R55">
-        <v>3</v>
-      </c>
-      <c r="S55">
-        <v>519260</v>
+        <v>4</v>
+      </c>
+      <c r="S55" t="s">
+        <v>167</v>
       </c>
       <c r="T55" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="U55" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="V55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W55" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56">
-        <v>89.95</v>
+        <v>98.75</v>
       </c>
       <c r="D56">
-        <v>42.04</v>
+        <v>46.15</v>
       </c>
       <c r="E56">
-        <v>-42.76</v>
+        <v>14.13</v>
       </c>
       <c r="F56">
-        <v>-31.82</v>
+        <v>22.59</v>
       </c>
       <c r="G56">
-        <v>17.37</v>
+        <v>30.77</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56">
-        <v>253.66</v>
+        <v>69.27</v>
+      </c>
+      <c r="K56">
+        <v>1.03</v>
       </c>
       <c r="L56">
-        <v>5.08</v>
+        <v>6.24</v>
       </c>
       <c r="M56">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N56">
-        <v>2.77</v>
+        <v>3.44</v>
       </c>
       <c r="O56">
-        <v>-1.4</v>
+        <v>-2.36</v>
       </c>
       <c r="P56">
-        <v>16.36</v>
+        <v>38.4</v>
       </c>
       <c r="Q56">
-        <v>-16.29</v>
+        <v>-21.06</v>
       </c>
       <c r="R56">
         <v>3</v>
       </c>
-      <c r="S56">
-        <v>523120</v>
+      <c r="S56" t="s">
+        <v>168</v>
       </c>
       <c r="T56" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="U56" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="V56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W56" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57">
-        <v>11.15</v>
+        <v>40.35</v>
       </c>
       <c r="D57">
-        <v>37.93</v>
+        <v>42.37</v>
       </c>
       <c r="E57">
-        <v>2.37</v>
+        <v>12.66</v>
       </c>
       <c r="F57">
-        <v>2.21</v>
-      </c>
-      <c r="G57">
-        <v>114.94</v>
+        <v>14.28</v>
       </c>
       <c r="H57">
-        <v>0.11</v>
+        <v>0.53</v>
       </c>
       <c r="I57">
         <v>6</v>
       </c>
-      <c r="J57">
-        <v>-48.6</v>
-      </c>
-      <c r="K57">
-        <v>6.8</v>
-      </c>
       <c r="L57">
-        <v>5.96</v>
+        <v>4.43</v>
       </c>
       <c r="M57">
-        <v>39.48</v>
-      </c>
-      <c r="N57">
-        <v>9.85</v>
+        <v>39.05</v>
       </c>
       <c r="O57">
-        <v>0.85</v>
+        <v>-12.67</v>
       </c>
       <c r="P57">
-        <v>-9.57</v>
+        <v>26.89</v>
       </c>
       <c r="Q57">
-        <v>13.2</v>
+        <v>-3.7</v>
       </c>
       <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>519238</v>
+        <v>4</v>
+      </c>
+      <c r="S57" t="s">
+        <v>169</v>
       </c>
       <c r="T57" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="U57" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="V57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58">
-        <v>33.15</v>
+        <v>11.15</v>
       </c>
       <c r="D58">
-        <v>34.81</v>
+        <v>37.93</v>
       </c>
       <c r="E58">
-        <v>12.66</v>
+        <v>2.37</v>
       </c>
       <c r="F58">
-        <v>14.28</v>
+        <v>2.21</v>
+      </c>
+      <c r="G58">
+        <v>114.94</v>
       </c>
       <c r="H58">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
       <c r="I58">
         <v>6</v>
       </c>
+      <c r="J58">
+        <v>-48.6</v>
+      </c>
+      <c r="K58">
+        <v>6.8</v>
+      </c>
       <c r="L58">
-        <v>4.29</v>
+        <v>5.96</v>
       </c>
       <c r="M58">
-        <v>39.48</v>
+        <v>39.05</v>
+      </c>
+      <c r="N58">
+        <v>9.85</v>
       </c>
       <c r="O58">
-        <v>-15.42</v>
+        <v>0.85</v>
       </c>
       <c r="P58">
-        <v>20.33</v>
+        <v>-9.57</v>
       </c>
       <c r="Q58">
-        <v>-25</v>
+        <v>2.86</v>
       </c>
       <c r="R58">
-        <v>4</v>
-      </c>
-      <c r="S58">
-        <v>530741</v>
+        <v>2</v>
+      </c>
+      <c r="S58" t="s">
+        <v>170</v>
       </c>
       <c r="T58" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="U58" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="V58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>259</v>
+      </c>
+      <c r="W58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59">
-        <v>126.05</v>
+        <v>73</v>
       </c>
       <c r="D59">
-        <v>33.4</v>
+        <v>36.8</v>
       </c>
       <c r="E59">
-        <v>9.33</v>
+        <v>-3.33</v>
       </c>
       <c r="F59">
-        <v>11.4</v>
-      </c>
-      <c r="G59">
-        <v>7.82</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H59">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J59">
-        <v>18.73</v>
-      </c>
-      <c r="K59">
-        <v>0.83</v>
+        <v>-9.9</v>
       </c>
       <c r="L59">
-        <v>6.12</v>
+        <v>2.12</v>
       </c>
       <c r="M59">
-        <v>24.26</v>
+        <v>40.05</v>
       </c>
       <c r="N59">
-        <v>1.31</v>
+        <v>0.61</v>
       </c>
       <c r="O59">
-        <v>19.4</v>
+        <v>4.61</v>
       </c>
       <c r="P59">
-        <v>4.09</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q59">
-        <v>3.32</v>
+        <v>7.83</v>
       </c>
       <c r="R59">
-        <v>5</v>
-      </c>
-      <c r="S59">
-        <v>524136</v>
+        <v>2</v>
+      </c>
+      <c r="S59" t="s">
+        <v>171</v>
       </c>
       <c r="T59" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="U59" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="V59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60">
-        <v>64</v>
+        <v>27.63</v>
       </c>
       <c r="D60">
-        <v>32.26</v>
-      </c>
-      <c r="E60">
-        <v>-3.33</v>
+        <v>35.48</v>
       </c>
       <c r="F60">
-        <v>-0.5600000000000001</v>
+        <v>6.68</v>
+      </c>
+      <c r="G60">
+        <v>35.84</v>
       </c>
       <c r="H60">
-        <v>0.26</v>
+        <v>24.47</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J60">
-        <v>-8.68</v>
+        <v>19.43</v>
+      </c>
+      <c r="K60">
+        <v>14.69</v>
       </c>
       <c r="L60">
-        <v>2.07</v>
+        <v>4.11</v>
       </c>
       <c r="M60">
-        <v>39.08</v>
+        <v>39.05</v>
       </c>
       <c r="N60">
-        <v>0.54</v>
+        <v>72.41</v>
       </c>
       <c r="O60">
-        <v>5.26</v>
+        <v>4.54</v>
       </c>
       <c r="P60">
-        <v>-11.48</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="Q60">
-        <v>-11.11</v>
+        <v>55.22</v>
       </c>
       <c r="R60">
         <v>2</v>
       </c>
-      <c r="S60">
-        <v>533212</v>
+      <c r="S60" t="s">
+        <v>172</v>
       </c>
       <c r="T60" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="U60" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="V60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>27.9</v>
+        <v>61.2</v>
       </c>
       <c r="D61">
-        <v>31.07</v>
+        <v>33.91</v>
       </c>
       <c r="E61">
-        <v>8.640000000000001</v>
+        <v>11.41</v>
       </c>
       <c r="F61">
-        <v>9.539999999999999</v>
+        <v>16.16</v>
       </c>
       <c r="G61">
-        <v>25.89</v>
+        <v>7.54</v>
       </c>
       <c r="H61">
-        <v>1.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61">
-        <v>52.19</v>
+        <v>2.15</v>
+      </c>
+      <c r="K61">
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>3.22</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N61">
-        <v>2.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O61">
-        <v>14.16</v>
+        <v>38.37</v>
       </c>
       <c r="P61">
-        <v>7.31</v>
+        <v>16.79</v>
       </c>
       <c r="Q61">
-        <v>11.96</v>
+        <v>30.49</v>
       </c>
       <c r="R61">
-        <v>1</v>
-      </c>
-      <c r="S61">
-        <v>541418</v>
+        <v>7</v>
+      </c>
+      <c r="S61" t="s">
+        <v>173</v>
       </c>
       <c r="T61" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="U61" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="V61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <v>267</v>
+      </c>
+      <c r="W61" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62">
-        <v>55.15</v>
+        <v>127.15</v>
       </c>
       <c r="D62">
-        <v>30.56</v>
+        <v>33.69</v>
       </c>
       <c r="E62">
-        <v>7.75</v>
+        <v>9.33</v>
       </c>
       <c r="F62">
-        <v>13.31</v>
+        <v>11.4</v>
       </c>
       <c r="G62">
-        <v>6.79</v>
+        <v>7.89</v>
       </c>
       <c r="H62">
-        <v>1.27</v>
+        <v>0.09</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>1.87</v>
+        <v>18.89</v>
       </c>
       <c r="K62">
-        <v>-2.84</v>
+        <v>0.83</v>
       </c>
       <c r="L62">
-        <v>3.13</v>
+        <v>6.13</v>
       </c>
       <c r="M62">
-        <v>39.48</v>
+        <v>24.86</v>
       </c>
       <c r="N62">
-        <v>0.79</v>
+        <v>1.32</v>
       </c>
       <c r="O62">
-        <v>43.77</v>
+        <v>19.23</v>
       </c>
       <c r="P62">
-        <v>10.74</v>
+        <v>3.97</v>
       </c>
       <c r="Q62">
-        <v>18.6</v>
+        <v>7.34</v>
       </c>
       <c r="R62">
         <v>5</v>
       </c>
-      <c r="S62">
-        <v>507598</v>
+      <c r="S62" t="s">
+        <v>174</v>
       </c>
       <c r="T62" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="U62" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="V62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W62" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D63">
-        <v>29.71</v>
+        <v>33.29</v>
       </c>
       <c r="E63">
-        <v>16.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F63">
-        <v>17.38</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G63">
-        <v>8.74</v>
+        <v>27.74</v>
       </c>
       <c r="H63">
-        <v>0.98</v>
+        <v>1.57</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>-168.11</v>
+        <v>55.94</v>
       </c>
       <c r="L63">
-        <v>6.1</v>
+        <v>3.28</v>
       </c>
       <c r="M63">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N63">
-        <v>1.34</v>
+        <v>2.4</v>
       </c>
       <c r="O63">
-        <v>30.82</v>
+        <v>13.22</v>
       </c>
       <c r="P63">
-        <v>7.14</v>
+        <v>15</v>
       </c>
       <c r="Q63">
-        <v>18.11</v>
+        <v>15.67</v>
       </c>
       <c r="R63">
-        <v>5</v>
-      </c>
-      <c r="S63">
-        <v>541352</v>
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>175</v>
       </c>
       <c r="T63" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="U63" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="V63" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W63" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64">
-        <v>7.4</v>
+        <v>45.45</v>
       </c>
       <c r="D64">
-        <v>27.43</v>
+        <v>32.49</v>
+      </c>
+      <c r="E64">
+        <v>5.15</v>
       </c>
       <c r="F64">
-        <v>-3.72</v>
+        <v>5.09</v>
+      </c>
+      <c r="G64">
+        <v>16.75</v>
+      </c>
+      <c r="H64">
+        <v>1.14</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J64">
-        <v>0.37</v>
+        <v>21.05</v>
+      </c>
+      <c r="K64">
+        <v>2.28</v>
       </c>
       <c r="L64">
-        <v>-3.68</v>
+        <v>3.82</v>
       </c>
       <c r="M64">
-        <v>39.48</v>
+        <v>24.86</v>
+      </c>
+      <c r="N64">
+        <v>1.92</v>
       </c>
       <c r="O64">
-        <v>94.84999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="P64">
-        <v>4.23</v>
+        <v>51.5</v>
       </c>
       <c r="Q64">
-        <v>2.78</v>
+        <v>37.73</v>
       </c>
       <c r="R64">
-        <v>3</v>
-      </c>
-      <c r="S64">
-        <v>512559</v>
+        <v>5</v>
+      </c>
+      <c r="S64" t="s">
+        <v>176</v>
       </c>
       <c r="T64" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="U64" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="V64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W64" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65">
-        <v>20.69</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>26.57</v>
+        <v>29.71</v>
+      </c>
+      <c r="E65">
+        <v>16.66</v>
       </c>
       <c r="F65">
-        <v>6.68</v>
+        <v>17.38</v>
       </c>
       <c r="G65">
-        <v>26.84</v>
+        <v>8.74</v>
       </c>
       <c r="H65">
-        <v>24.47</v>
+        <v>0.98</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J65">
-        <v>14.55</v>
-      </c>
-      <c r="K65">
-        <v>11</v>
+        <v>-168.11</v>
       </c>
       <c r="L65">
-        <v>3.79</v>
+        <v>6.1</v>
       </c>
       <c r="M65">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N65">
-        <v>54.22</v>
+        <v>1.34</v>
       </c>
       <c r="O65">
-        <v>6.06</v>
+        <v>30.82</v>
       </c>
       <c r="P65">
-        <v>39.8</v>
+        <v>7.14</v>
       </c>
       <c r="Q65">
-        <v>11.84</v>
+        <v>13.21</v>
       </c>
       <c r="R65">
-        <v>3</v>
-      </c>
-      <c r="S65">
-        <v>523475</v>
+        <v>5</v>
+      </c>
+      <c r="S65" t="s">
+        <v>177</v>
       </c>
       <c r="T65" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="U65" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="V65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66">
-        <v>35.7</v>
+        <v>7.4</v>
       </c>
       <c r="D66">
-        <v>25.52</v>
-      </c>
-      <c r="E66">
-        <v>5.15</v>
+        <v>27.43</v>
       </c>
       <c r="F66">
-        <v>5.09</v>
-      </c>
-      <c r="G66">
-        <v>13.15</v>
-      </c>
-      <c r="H66">
-        <v>1.14</v>
+        <v>-3.72</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>16.53</v>
-      </c>
-      <c r="K66">
-        <v>1.79</v>
+        <v>0.37</v>
       </c>
       <c r="L66">
-        <v>3.71</v>
+        <v>-3.68</v>
       </c>
       <c r="M66">
-        <v>24.26</v>
-      </c>
-      <c r="N66">
-        <v>1.51</v>
+        <v>39.05</v>
       </c>
       <c r="O66">
-        <v>12.1</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="P66">
-        <v>23.1</v>
+        <v>4.23</v>
       </c>
       <c r="Q66">
-        <v>14.24</v>
+        <v>2.78</v>
       </c>
       <c r="R66">
-        <v>5</v>
-      </c>
-      <c r="S66">
-        <v>526231</v>
+        <v>3</v>
+      </c>
+      <c r="S66" t="s">
+        <v>178</v>
       </c>
       <c r="T66" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="U66" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="V66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>261</v>
+      </c>
+      <c r="W66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67">
-        <v>9.42</v>
+        <v>10.59</v>
       </c>
       <c r="D67">
-        <v>21.97</v>
+        <v>24.7</v>
       </c>
       <c r="F67">
         <v>147.65</v>
       </c>
       <c r="G67">
-        <v>4.23</v>
+        <v>4.76</v>
       </c>
       <c r="I67">
         <v>7</v>
       </c>
       <c r="J67">
-        <v>5.1</v>
+        <v>5.74</v>
       </c>
       <c r="K67">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="L67">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="M67">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="O67">
-        <v>47.43</v>
+        <v>42.19</v>
       </c>
       <c r="P67">
-        <v>7.78</v>
+        <v>16.89</v>
       </c>
       <c r="Q67">
-        <v>-2.38</v>
+        <v>-0.66</v>
       </c>
       <c r="R67">
         <v>4</v>
       </c>
-      <c r="S67">
-        <v>519287</v>
+      <c r="S67" t="s">
+        <v>179</v>
       </c>
       <c r="T67" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="U67" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="V67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>260</v>
+      </c>
+      <c r="W67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68">
-        <v>7.39</v>
+        <v>7.98</v>
       </c>
       <c r="D68">
-        <v>17.87</v>
+        <v>19.3</v>
       </c>
       <c r="E68">
         <v>0.38</v>
@@ -5355,54 +5892,57 @@
         <v>7</v>
       </c>
       <c r="J68">
-        <v>6.95</v>
+        <v>7.5</v>
       </c>
       <c r="L68">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="M68">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N68">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O68">
-        <v>23.55</v>
+        <v>21.81</v>
       </c>
       <c r="P68">
-        <v>12.48</v>
+        <v>25.47</v>
       </c>
       <c r="Q68">
-        <v>2.5</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="R68">
         <v>3</v>
       </c>
-      <c r="S68">
-        <v>530461</v>
+      <c r="S68" t="s">
+        <v>180</v>
       </c>
       <c r="T68" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="U68" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="V68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>261</v>
+      </c>
+      <c r="W68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="D69">
-        <v>13.7</v>
+        <v>13.57</v>
       </c>
       <c r="E69">
         <v>-51.25</v>
@@ -5417,48 +5957,51 @@
         <v>3</v>
       </c>
       <c r="J69">
-        <v>-4.9</v>
+        <v>-4.86</v>
       </c>
       <c r="L69">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="M69">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N69">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O69">
-        <v>-27.37</v>
+        <v>-27.64</v>
       </c>
       <c r="P69">
-        <v>16.33</v>
+        <v>14.66</v>
       </c>
       <c r="Q69">
-        <v>16.41</v>
+        <v>11.5</v>
       </c>
       <c r="R69">
         <v>2</v>
       </c>
-      <c r="S69">
-        <v>507300</v>
+      <c r="S69" t="s">
+        <v>181</v>
       </c>
       <c r="T69" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="U69" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="V69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <v>9.550000000000001</v>
@@ -5488,7 +6031,7 @@
         <v>5.35</v>
       </c>
       <c r="M70">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N70">
         <v>0.91</v>
@@ -5497,39 +6040,42 @@
         <v>19</v>
       </c>
       <c r="P70">
-        <v>-5.45</v>
+        <v>-0.52</v>
       </c>
       <c r="Q70">
-        <v>-10.33</v>
+        <v>-5.91</v>
       </c>
       <c r="R70">
         <v>4</v>
       </c>
       <c r="S70" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="T70" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="U70" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="V70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C71">
-        <v>36.5</v>
+        <v>37.95</v>
       </c>
       <c r="D71">
-        <v>10.95</v>
+        <v>11.39</v>
       </c>
       <c r="E71">
         <v>3.52</v>
@@ -5538,7 +6084,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="G71">
-        <v>17.38</v>
+        <v>18.08</v>
       </c>
       <c r="H71">
         <v>1.88</v>
@@ -5547,57 +6093,60 @@
         <v>7</v>
       </c>
       <c r="J71">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="K71">
-        <v>-2.49</v>
+        <v>-2.59</v>
       </c>
       <c r="L71">
         <v>3.17</v>
       </c>
       <c r="M71">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N71">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="O71">
-        <v>38.77</v>
+        <v>37.27</v>
       </c>
       <c r="P71">
-        <v>-0.82</v>
+        <v>5.42</v>
       </c>
       <c r="Q71">
-        <v>7.35</v>
+        <v>16.59</v>
       </c>
       <c r="R71">
         <v>2</v>
       </c>
-      <c r="S71">
-        <v>530953</v>
+      <c r="S71" t="s">
+        <v>183</v>
       </c>
       <c r="T71" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="U71" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="V71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W71" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72">
-        <v>34.1</v>
+        <v>35.25</v>
       </c>
       <c r="D72">
-        <v>10.67</v>
+        <v>11.03</v>
       </c>
       <c r="E72">
         <v>-2.81</v>
@@ -5612,175 +6161,184 @@
         <v>6</v>
       </c>
       <c r="J72">
-        <v>264.28</v>
+        <v>273.19</v>
       </c>
       <c r="L72">
-        <v>4.99</v>
+        <v>5.07</v>
       </c>
       <c r="M72">
-        <v>24.26</v>
+        <v>24.86</v>
       </c>
       <c r="N72">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O72">
-        <v>-6.47</v>
+        <v>-6.25</v>
       </c>
       <c r="P72">
-        <v>-4.08</v>
+        <v>2.92</v>
       </c>
       <c r="Q72">
-        <v>-13.45</v>
+        <v>-14.02</v>
       </c>
       <c r="R72">
         <v>5</v>
       </c>
-      <c r="S72">
-        <v>530853</v>
+      <c r="S72" t="s">
+        <v>184</v>
       </c>
       <c r="T72" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="V72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W72" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73">
-        <v>20.5</v>
+        <v>11.2</v>
       </c>
       <c r="D73">
-        <v>9.949999999999999</v>
+        <v>10.37</v>
       </c>
       <c r="E73">
-        <v>-0.62</v>
+        <v>-5.94</v>
       </c>
       <c r="F73">
-        <v>6.93</v>
+        <v>-3.46</v>
       </c>
       <c r="H73">
-        <v>1.02</v>
+        <v>0.86</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J73">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="L73">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="M73">
-        <v>39.08</v>
+        <v>39.05</v>
       </c>
       <c r="N73">
-        <v>0.55</v>
-      </c>
-      <c r="O73">
-        <v>19.1</v>
+        <v>0.91</v>
       </c>
       <c r="P73">
-        <v>33.12</v>
+        <v>-13.85</v>
       </c>
       <c r="Q73">
-        <v>24.24</v>
+        <v>-29.69</v>
       </c>
       <c r="R73">
-        <v>2</v>
-      </c>
-      <c r="S73">
-        <v>507970</v>
+        <v>3</v>
+      </c>
+      <c r="S73" t="s">
+        <v>185</v>
       </c>
       <c r="T73" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="V73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74">
-        <v>10.55</v>
+        <v>20.65</v>
       </c>
       <c r="D74">
-        <v>9.77</v>
+        <v>10.03</v>
       </c>
       <c r="E74">
-        <v>-5.94</v>
+        <v>-0.62</v>
       </c>
       <c r="F74">
-        <v>-3.46</v>
+        <v>6.93</v>
       </c>
       <c r="H74">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <v>2.5</v>
+      </c>
+      <c r="L74">
+        <v>1.05</v>
+      </c>
+      <c r="M74">
+        <v>40.05</v>
+      </c>
+      <c r="N74">
+        <v>0.55</v>
+      </c>
+      <c r="O74">
+        <v>18.95</v>
+      </c>
+      <c r="P74">
+        <v>21.47</v>
+      </c>
+      <c r="Q74">
+        <v>24.02</v>
+      </c>
+      <c r="R74">
         <v>2</v>
       </c>
-      <c r="J74">
-        <v>1.9</v>
-      </c>
-      <c r="L74">
-        <v>0.93</v>
-      </c>
-      <c r="M74">
-        <v>39.48</v>
-      </c>
-      <c r="N74">
-        <v>0.86</v>
-      </c>
-      <c r="P74">
-        <v>-15.6</v>
-      </c>
-      <c r="Q74">
-        <v>-23.44</v>
-      </c>
-      <c r="R74">
-        <v>3</v>
-      </c>
-      <c r="S74">
-        <v>531406</v>
+      <c r="S74" t="s">
+        <v>186</v>
       </c>
       <c r="T74" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="U74" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="V74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75">
-        <v>18.05</v>
+        <v>17.15</v>
       </c>
       <c r="D75">
-        <v>9.57</v>
+        <v>9.1</v>
       </c>
       <c r="F75">
         <v>-66.89</v>
@@ -5789,435 +6347,456 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>-7.86</v>
+        <v>-7.47</v>
       </c>
       <c r="L75">
-        <v>-2.38</v>
+        <v>-2.42</v>
       </c>
       <c r="M75">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="O75">
-        <v>-8.57</v>
+        <v>-9.01</v>
       </c>
       <c r="P75">
-        <v>-9.75</v>
+        <v>-14.25</v>
       </c>
       <c r="Q75">
-        <v>-9.75</v>
+        <v>-14.25</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
-      <c r="S75">
-        <v>519415</v>
+      <c r="S75" t="s">
+        <v>187</v>
       </c>
       <c r="T75" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="U75" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="V75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C76">
-        <v>8.24</v>
+        <v>7.56</v>
       </c>
       <c r="D76">
-        <v>8.449999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E76">
-        <v>-493.86</v>
+        <v>6.98</v>
       </c>
       <c r="F76">
-        <v>-36.34</v>
+        <v>9.48</v>
+      </c>
+      <c r="G76">
+        <v>6.05</v>
       </c>
       <c r="H76">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J76">
-        <v>-3.13</v>
+        <v>5.97</v>
+      </c>
+      <c r="K76">
+        <v>1.59</v>
       </c>
       <c r="L76">
-        <v>0.07000000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="M76">
-        <v>39.48</v>
+        <v>39.05</v>
+      </c>
+      <c r="N76">
+        <v>0.42</v>
       </c>
       <c r="O76">
-        <v>-262.39</v>
+        <v>44.33</v>
       </c>
       <c r="P76">
-        <v>-8.44</v>
+        <v>16.31</v>
       </c>
       <c r="Q76">
-        <v>9.57</v>
+        <v>2.86</v>
       </c>
       <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>540850</v>
+        <v>5</v>
+      </c>
+      <c r="S76" t="s">
+        <v>188</v>
       </c>
       <c r="T76" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="U76" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="V76" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77">
+        <v>18.45</v>
+      </c>
+      <c r="D77">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E77">
+        <v>3.23</v>
+      </c>
+      <c r="F77">
+        <v>8.48</v>
+      </c>
+      <c r="G77">
+        <v>52.29</v>
+      </c>
+      <c r="H77">
+        <v>1.94</v>
+      </c>
+      <c r="I77">
         <v>7</v>
       </c>
-      <c r="D77">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E77">
-        <v>6.98</v>
-      </c>
-      <c r="F77">
-        <v>9.48</v>
-      </c>
-      <c r="G77">
-        <v>5.61</v>
-      </c>
-      <c r="H77">
-        <v>1.03</v>
-      </c>
-      <c r="I77">
-        <v>6</v>
-      </c>
       <c r="J77">
-        <v>5.53</v>
+        <v>-6.76</v>
       </c>
       <c r="K77">
-        <v>1.48</v>
+        <v>2.47</v>
       </c>
       <c r="L77">
-        <v>3.53</v>
+        <v>1.31</v>
       </c>
       <c r="M77">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N77">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="O77">
-        <v>47.86</v>
+        <v>37.11</v>
       </c>
       <c r="P77">
-        <v>10.24</v>
+        <v>15.38</v>
       </c>
       <c r="Q77">
-        <v>13.82</v>
+        <v>4.53</v>
       </c>
       <c r="R77">
-        <v>5</v>
-      </c>
-      <c r="S77">
-        <v>517554</v>
+        <v>1</v>
+      </c>
+      <c r="S77" t="s">
+        <v>189</v>
       </c>
       <c r="T77" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="U77" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="V77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W77" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C78">
-        <v>4.61</v>
+        <v>8.24</v>
       </c>
       <c r="D78">
-        <v>8.17</v>
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E78">
+        <v>-493.86</v>
       </c>
       <c r="F78">
-        <v>-3.1</v>
+        <v>-36.34</v>
+      </c>
+      <c r="H78">
+        <v>3.4</v>
       </c>
       <c r="I78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>102</v>
+        <v>-3.13</v>
       </c>
       <c r="L78">
-        <v>1.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M78">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="O78">
-        <v>-0.37</v>
+        <v>-262.39</v>
       </c>
       <c r="P78">
-        <v>20.68</v>
+        <v>-2.94</v>
       </c>
       <c r="Q78">
-        <v>-30.36</v>
+        <v>-9.65</v>
       </c>
       <c r="R78">
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <v>519285</v>
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>190</v>
       </c>
       <c r="T78" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="U78" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="V78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <v>265</v>
+      </c>
+      <c r="W78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C79">
-        <v>16.8</v>
+        <v>4.31</v>
       </c>
       <c r="D79">
-        <v>8.1</v>
-      </c>
-      <c r="E79">
-        <v>3.23</v>
+        <v>7.64</v>
       </c>
       <c r="F79">
-        <v>8.48</v>
-      </c>
-      <c r="G79">
-        <v>47.65</v>
-      </c>
-      <c r="H79">
-        <v>1.94</v>
+        <v>-3.1</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J79">
-        <v>-6.16</v>
-      </c>
-      <c r="K79">
-        <v>2.25</v>
+        <v>95.36</v>
       </c>
       <c r="L79">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="M79">
-        <v>39.48</v>
-      </c>
-      <c r="N79">
-        <v>0.76</v>
+        <v>39.05</v>
       </c>
       <c r="O79">
-        <v>40.73</v>
+        <v>-0.39</v>
       </c>
       <c r="P79">
-        <v>4.02</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="Q79">
-        <v>7.69</v>
+        <v>-27.32</v>
       </c>
       <c r="R79">
         <v>1</v>
       </c>
-      <c r="S79">
-        <v>530617</v>
+      <c r="S79" t="s">
+        <v>191</v>
       </c>
       <c r="T79" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="U79" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="V79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+        <v>258</v>
+      </c>
+      <c r="W79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C80">
-        <v>13.73</v>
+        <v>18.35</v>
       </c>
       <c r="D80">
-        <v>6.66</v>
+        <v>6.42</v>
       </c>
       <c r="E80">
-        <v>8.31</v>
+        <v>6.07</v>
       </c>
       <c r="F80">
-        <v>9.359999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="G80">
-        <v>13.88</v>
+        <v>19.45</v>
       </c>
       <c r="H80">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J80">
-        <v>2.81</v>
+        <v>-9.09</v>
       </c>
       <c r="K80">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L80">
-        <v>1.32</v>
+        <v>6.34</v>
       </c>
       <c r="M80">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N80">
-        <v>2.68</v>
+        <v>0.35</v>
       </c>
       <c r="O80">
-        <v>40.54</v>
+        <v>2.8</v>
       </c>
       <c r="P80">
-        <v>12.54</v>
+        <v>15.05</v>
       </c>
       <c r="Q80">
-        <v>9.84</v>
+        <v>7.94</v>
       </c>
       <c r="R80">
-        <v>5</v>
-      </c>
-      <c r="S80">
-        <v>531982</v>
+        <v>3</v>
+      </c>
+      <c r="S80" t="s">
+        <v>192</v>
       </c>
       <c r="T80" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="U80" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="V80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>258</v>
+      </c>
+      <c r="W80" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81">
-        <v>18.15</v>
+        <v>13.11</v>
       </c>
       <c r="D81">
-        <v>6.35</v>
+        <v>6.36</v>
       </c>
       <c r="E81">
-        <v>6.07</v>
+        <v>8.31</v>
       </c>
       <c r="F81">
-        <v>9.74</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G81">
-        <v>19.24</v>
+        <v>13.25</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="I81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J81">
-        <v>-8.99</v>
+        <v>2.69</v>
       </c>
       <c r="K81">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="L81">
-        <v>6.29</v>
+        <v>1.31</v>
       </c>
       <c r="M81">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N81">
-        <v>0.35</v>
+        <v>2.56</v>
       </c>
       <c r="O81">
-        <v>2.83</v>
+        <v>42.45</v>
       </c>
       <c r="P81">
-        <v>7.4</v>
+        <v>7.46</v>
       </c>
       <c r="Q81">
-        <v>6.14</v>
+        <v>1.08</v>
       </c>
       <c r="R81">
-        <v>3</v>
-      </c>
-      <c r="S81">
-        <v>519612</v>
+        <v>5</v>
+      </c>
+      <c r="S81" t="s">
+        <v>193</v>
       </c>
       <c r="T81" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="U81" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="V81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+        <v>255</v>
+      </c>
+      <c r="W81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C82">
-        <v>7.8</v>
+        <v>7.21</v>
       </c>
       <c r="D82">
-        <v>3.77</v>
+        <v>3.49</v>
       </c>
       <c r="E82">
         <v>-0.16</v>
@@ -6232,54 +6811,57 @@
         <v>2</v>
       </c>
       <c r="J82">
-        <v>-2.04</v>
+        <v>-1.89</v>
       </c>
       <c r="L82">
-        <v>47.35</v>
+        <v>43.99</v>
       </c>
       <c r="M82">
-        <v>39.08</v>
+        <v>40.05</v>
       </c>
       <c r="N82">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="O82">
-        <v>-3.71</v>
+        <v>-4.01</v>
       </c>
       <c r="P82">
-        <v>21.31</v>
+        <v>-7.21</v>
       </c>
       <c r="Q82">
-        <v>14.2</v>
+        <v>-2.17</v>
       </c>
       <c r="R82">
         <v>2</v>
       </c>
-      <c r="S82">
-        <v>542771</v>
+      <c r="S82" t="s">
+        <v>194</v>
       </c>
       <c r="T82" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="V82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <v>268</v>
+      </c>
+      <c r="W82" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83">
-        <v>10.75</v>
+        <v>11.22</v>
       </c>
       <c r="D83">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="E83">
         <v>6.11</v>
@@ -6288,7 +6870,7 @@
         <v>8.73</v>
       </c>
       <c r="G83">
-        <v>9.56</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -6297,54 +6879,57 @@
         <v>6</v>
       </c>
       <c r="J83">
-        <v>48.38</v>
+        <v>50.49</v>
       </c>
       <c r="K83">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="L83">
-        <v>11</v>
+        <v>11.37</v>
       </c>
       <c r="M83">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N83">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="P83">
-        <v>10.71</v>
+        <v>18.11</v>
       </c>
       <c r="Q83">
-        <v>26.47</v>
+        <v>14.37</v>
       </c>
       <c r="R83">
         <v>3</v>
       </c>
-      <c r="S83">
-        <v>530735</v>
+      <c r="S83" t="s">
+        <v>195</v>
       </c>
       <c r="T83" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="U83" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="V83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C84">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="D84">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
       <c r="F84">
         <v>-25</v>
@@ -6353,57 +6938,60 @@
         <v>6</v>
       </c>
       <c r="J84">
-        <v>-5.45</v>
+        <v>-5.92</v>
       </c>
       <c r="L84">
-        <v>-15.04</v>
+        <v>-15.03</v>
       </c>
       <c r="M84">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="O84">
-        <v>-7.66</v>
+        <v>-7.07</v>
       </c>
       <c r="P84">
-        <v>23.68</v>
+        <v>27.5</v>
       </c>
       <c r="Q84">
-        <v>11.9</v>
+        <v>26.87</v>
       </c>
       <c r="R84">
         <v>3</v>
       </c>
-      <c r="S84">
-        <v>500458</v>
+      <c r="S84" t="s">
+        <v>196</v>
       </c>
       <c r="T84" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="U84" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="V84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C85">
-        <v>176</v>
+        <v>174.95</v>
       </c>
       <c r="D85">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F85">
         <v>5.71</v>
       </c>
       <c r="G85">
-        <v>9.81</v>
+        <v>9.73</v>
       </c>
       <c r="H85">
         <v>9</v>
@@ -6412,54 +7000,57 @@
         <v>5</v>
       </c>
       <c r="J85">
-        <v>-264</v>
+        <v>-262.43</v>
       </c>
       <c r="K85">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="L85">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="M85">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N85">
-        <v>85.01000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="P85">
-        <v>14.03</v>
+        <v>10.69</v>
       </c>
       <c r="Q85">
-        <v>-3.35</v>
+        <v>6.71</v>
       </c>
       <c r="R85">
         <v>2</v>
       </c>
-      <c r="S85">
-        <v>519367</v>
+      <c r="S85" t="s">
+        <v>197</v>
       </c>
       <c r="T85" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="U85" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="V85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+        <v>262</v>
+      </c>
+      <c r="W85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86">
-        <v>3.9</v>
+        <v>4.68</v>
       </c>
       <c r="D86">
-        <v>2.01</v>
+        <v>2.41</v>
       </c>
       <c r="E86">
         <v>1.87</v>
@@ -6468,7 +7059,7 @@
         <v>3.72</v>
       </c>
       <c r="G86">
-        <v>16.75</v>
+        <v>20.08</v>
       </c>
       <c r="H86">
         <v>0.13</v>
@@ -6477,57 +7068,60 @@
         <v>7</v>
       </c>
       <c r="J86">
-        <v>-3.22</v>
+        <v>-3.86</v>
       </c>
       <c r="K86">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="L86">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="M86">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N86">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="O86">
-        <v>14.93</v>
+        <v>12.45</v>
       </c>
       <c r="P86">
-        <v>1.3</v>
+        <v>21.56</v>
       </c>
       <c r="Q86">
-        <v>2.63</v>
+        <v>23.16</v>
       </c>
       <c r="R86">
         <v>2</v>
       </c>
-      <c r="S86">
-        <v>540681</v>
+      <c r="S86" t="s">
+        <v>198</v>
       </c>
       <c r="T86" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="U86" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="V86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <v>260</v>
+      </c>
+      <c r="W86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="E87">
         <v>-15.15</v>
@@ -6542,45 +7136,48 @@
         <v>3</v>
       </c>
       <c r="J87">
-        <v>-56.33</v>
+        <v>-65</v>
       </c>
       <c r="L87">
-        <v>101.95</v>
+        <v>117.55</v>
       </c>
       <c r="M87">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N87">
-        <v>2.73</v>
+        <v>3.15</v>
       </c>
       <c r="P87">
-        <v>3.17</v>
+        <v>19.05</v>
       </c>
       <c r="Q87">
-        <v>-8.77</v>
+        <v>5.26</v>
       </c>
       <c r="R87">
         <v>3</v>
       </c>
-      <c r="S87">
-        <v>519463</v>
+      <c r="S87" t="s">
+        <v>199</v>
       </c>
       <c r="T87" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="U87" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="V87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <v>258</v>
+      </c>
+      <c r="W87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>3.88</v>
@@ -6607,7 +7204,7 @@
         <v>2.75</v>
       </c>
       <c r="M88">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N88">
         <v>0.26</v>
@@ -6624,152 +7221,161 @@
       <c r="R88">
         <v>1</v>
       </c>
-      <c r="S88">
-        <v>519279</v>
+      <c r="S88" t="s">
+        <v>200</v>
       </c>
       <c r="T88" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="U88" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="V88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <v>261</v>
+      </c>
+      <c r="W88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C89">
-        <v>3.57</v>
+        <v>18.95</v>
       </c>
       <c r="D89">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="E89">
-        <v>-0.54</v>
+        <v>-114.88</v>
       </c>
       <c r="F89">
-        <v>-0.54</v>
+        <v>-92.14</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>-3.78</v>
+        <v>-34.11</v>
       </c>
       <c r="L89">
-        <v>6.23</v>
+        <v>0.59</v>
       </c>
       <c r="M89">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N89">
-        <v>0.29</v>
-      </c>
-      <c r="O89">
-        <v>-1.87</v>
+        <v>3.06</v>
       </c>
       <c r="P89">
-        <v>3.48</v>
+        <v>-17.25</v>
       </c>
       <c r="Q89">
-        <v>12.62</v>
+        <v>-47.21</v>
       </c>
       <c r="R89">
-        <v>1</v>
-      </c>
-      <c r="S89">
-        <v>538542</v>
+        <v>4</v>
+      </c>
+      <c r="S89" t="s">
+        <v>201</v>
       </c>
       <c r="T89" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="U89" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="V89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+        <v>257</v>
+      </c>
+      <c r="W89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C90">
-        <v>17.2</v>
+        <v>3.25</v>
       </c>
       <c r="D90">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="E90">
-        <v>-114.88</v>
+        <v>-0.54</v>
       </c>
       <c r="F90">
-        <v>-92.14</v>
+        <v>-0.54</v>
       </c>
       <c r="H90">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>-30.96</v>
+        <v>-3.44</v>
       </c>
       <c r="L90">
-        <v>0.53</v>
+        <v>5.84</v>
       </c>
       <c r="M90">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N90">
-        <v>2.78</v>
+        <v>0.26</v>
+      </c>
+      <c r="O90">
+        <v>-2.04</v>
       </c>
       <c r="P90">
-        <v>-28.63</v>
+        <v>-5.8</v>
       </c>
       <c r="Q90">
-        <v>-52.09</v>
+        <v>7.62</v>
       </c>
       <c r="R90">
-        <v>4</v>
-      </c>
-      <c r="S90">
-        <v>519031</v>
+        <v>1</v>
+      </c>
+      <c r="S90" t="s">
+        <v>202</v>
       </c>
       <c r="T90" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="U90" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="V90" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+        <v>261</v>
+      </c>
+      <c r="W90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C91">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="D91">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E91">
         <v>0.54</v>
@@ -6784,48 +7390,51 @@
         <v>7</v>
       </c>
       <c r="J91">
-        <v>-1.17</v>
+        <v>-1.18</v>
       </c>
       <c r="L91">
         <v>-0.24</v>
       </c>
       <c r="M91">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N91">
         <v>0.1</v>
       </c>
       <c r="O91">
-        <v>-30.43</v>
+        <v>-30.1</v>
       </c>
       <c r="P91">
-        <v>-9.050000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="Q91">
-        <v>-41.55</v>
+        <v>-37.61</v>
       </c>
       <c r="R91">
         <v>3</v>
       </c>
-      <c r="S91">
-        <v>512565</v>
+      <c r="S91" t="s">
+        <v>203</v>
       </c>
       <c r="T91" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="U91" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="V91" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+        <v>256</v>
+      </c>
+      <c r="W91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C92">
         <v>0.64</v>
@@ -6852,7 +7461,7 @@
         <v>0.93</v>
       </c>
       <c r="M92">
-        <v>39.48</v>
+        <v>39.05</v>
       </c>
       <c r="N92">
         <v>0.03</v>
@@ -6861,22 +7470,25 @@
         <v>12.28</v>
       </c>
       <c r="Q92">
-        <v>16.36</v>
+        <v>18.52</v>
       </c>
       <c r="R92">
         <v>2</v>
       </c>
-      <c r="S92">
-        <v>531834</v>
+      <c r="S92" t="s">
+        <v>204</v>
       </c>
       <c r="T92" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="U92" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="V92" t="s">
-        <v>162</v>
+        <v>257</v>
+      </c>
+      <c r="W92" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
